--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_40.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2042542.2317638</v>
+        <v>2025160.390248028</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3869142.441219875</v>
+        <v>3869142.441219874</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11182299.01113488</v>
+        <v>11182299.01113489</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5980390.487884692</v>
+        <v>5980390.487884695</v>
       </c>
     </row>
     <row r="11">
@@ -2087,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>153.1185395812873</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>153.1185395812873</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>127.911342785262</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,22 +2126,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>67.30457115600578</v>
+        <v>67.30457115600575</v>
       </c>
       <c r="S20" t="n">
-        <v>67.56223850719202</v>
+        <v>126.4555228011014</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>140.5313027789874</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>132.0196888857031</v>
       </c>
       <c r="W20" t="n">
-        <v>153.1185395812873</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>83.96863686472341</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>90.14395220317181</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>64.88051877949482</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>75.08053367025701</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>62.50466560823995</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>54.7789703780667</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>29.67089745135253</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>6.832086066271145</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>17.59328736749923</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,19 +2214,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>26.94797368349761</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>150.2360403642814</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>153.1185395812873</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>123.2084384183336</v>
+        <v>3.244018393321859</v>
       </c>
       <c r="Y21" t="n">
-        <v>123.1181489921605</v>
+        <v>123.1181489921604</v>
       </c>
     </row>
     <row r="22">
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>84.68227431348393</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>94.72884459202555</v>
       </c>
       <c r="S22" t="n">
-        <v>77.25639934144424</v>
+        <v>141.4520512518283</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>145.3810426431376</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>153.1185395812873</v>
       </c>
       <c r="V22" t="n">
-        <v>153.1185395812873</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>143.1451086038932</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>136.0201065669509</v>
+        <v>59.54195033878086</v>
       </c>
     </row>
     <row r="23">
@@ -2324,19 +2324,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>153.1185395812873</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>153.1185395812873</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6.955466877935791</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>153.1185395812873</v>
       </c>
       <c r="I23" t="n">
-        <v>106.8124920896776</v>
+        <v>127.911342785262</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>67.30457115600578</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>126.4555228011014</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>140.5313027789875</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>153.1185395812873</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2394,28 +2394,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>83.96863686472344</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>64.88051877949485</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>75.08053367025704</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>62.50466560823997</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>54.77897037806673</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>29.67089745135256</v>
+        <v>29.67089745135253</v>
       </c>
       <c r="I24" t="n">
-        <v>6.832086066271174</v>
+        <v>6.832086066271145</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>17.59328736749923</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2451,19 +2451,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>143.3768352958309</v>
+        <v>8.038277533373364</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>150.2360403642813</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>153.1185395812873</v>
       </c>
       <c r="X24" t="n">
-        <v>55.53599692532361</v>
+        <v>123.2084384183335</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>123.1181489921604</v>
       </c>
     </row>
     <row r="25">
@@ -2473,31 +2473,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>97.26743339679336</v>
       </c>
       <c r="C25" t="n">
-        <v>48.64000237502194</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>66.05092623306845</v>
+        <v>66.05092623306842</v>
       </c>
       <c r="E25" t="n">
-        <v>63.86941586142527</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>85.42643257331486</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>79.66262572229567</v>
+        <v>79.66262572229564</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>51.38029840317117</v>
       </c>
       <c r="J25" t="n">
-        <v>10.79463333152887</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,13 +2518,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.597496466550481</v>
+        <v>3.597496466550453</v>
       </c>
       <c r="R25" t="n">
-        <v>94.72884459202558</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>141.4520512518284</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>153.1185395812873</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>143.1451086038932</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,25 +2555,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>134.8668096631978</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>6.955466877935791</v>
+      </c>
+      <c r="G26" t="n">
         <v>153.1185395812873</v>
       </c>
-      <c r="E26" t="n">
+      <c r="H26" t="n">
         <v>153.1185395812873</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>127.911342785262</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>153.1185395812873</v>
       </c>
       <c r="Y26" t="n">
-        <v>153.1185395812873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>54.28296533645328</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>117.6001819096777</v>
       </c>
       <c r="U27" t="n">
         <v>143.3768352958309</v>
       </c>
       <c r="V27" t="n">
-        <v>150.2360403642814</v>
+        <v>150.2360403642813</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>123.2084384183336</v>
+        <v>59.89122184510932</v>
       </c>
       <c r="Y27" t="n">
-        <v>123.1181489921605</v>
+        <v>123.1181489921604</v>
       </c>
     </row>
     <row r="28">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>97.26743339679336</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>39.31676271703733</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>10.79463333152887</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>94.72884459202558</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>141.4520512518283</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1185395812873</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>153.1185395812873</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>76.33772858759386</v>
       </c>
       <c r="X28" t="n">
         <v>143.1451086038932</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>136.0201065669509</v>
       </c>
     </row>
     <row r="29">
@@ -2798,67 +2798,67 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>134.8668096631978</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>153.1185395812873</v>
       </c>
-      <c r="F29" t="n">
+      <c r="X29" t="n">
         <v>153.1185395812873</v>
       </c>
-      <c r="G29" t="n">
+      <c r="Y29" t="n">
         <v>153.1185395812873</v>
-      </c>
-      <c r="H29" t="n">
-        <v>26.0045742295956</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>108.8622354336022</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>72.55066483567261</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>6.093162587162402</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2922,10 +2922,10 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>100.0068945421785</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>125.7835479283317</v>
       </c>
       <c r="V30" t="n">
         <v>132.6427529967821</v>
@@ -2937,7 +2937,7 @@
         <v>105.6151510508343</v>
       </c>
       <c r="Y30" t="n">
-        <v>104.4204808089881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.67414602929416</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>77.13555722452635</v>
       </c>
       <c r="S31" t="n">
-        <v>80.52344793955258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>127.7877552756384</v>
@@ -3007,7 +3007,7 @@
         <v>153.1185395812873</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>83.06203674432044</v>
       </c>
       <c r="W31" t="n">
         <v>153.1185395812873</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>134.8668096631978</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,64 +3038,64 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>153.1185395812873</v>
       </c>
-      <c r="G32" t="n">
+      <c r="W32" t="n">
         <v>153.1185395812873</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>49.71128378850655</v>
-      </c>
-      <c r="S32" t="n">
-        <v>108.8622354336022</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>129.4118300223763</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>153.1185395812873</v>
       </c>
     </row>
     <row r="33">
@@ -3114,10 +3114,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>57.48724630275781</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>44.91137824074075</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>100.0068945421785</v>
       </c>
       <c r="U33" t="n">
         <v>125.7835479283317</v>
@@ -3168,13 +3168,13 @@
         <v>132.6427529967821</v>
       </c>
       <c r="W33" t="n">
-        <v>22.25749026295159</v>
+        <v>151.5371490082765</v>
       </c>
       <c r="X33" t="n">
-        <v>105.6151510508343</v>
+        <v>84.25208393149084</v>
       </c>
       <c r="Y33" t="n">
-        <v>105.5248616246612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.67414602929416</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>67.0889869459847</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>46.27612849392604</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>48.20903665781433</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>39.71349453386436</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>77.13555722452635</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>123.8587638843291</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>153.1185395812873</v>
       </c>
       <c r="V34" t="n">
         <v>151.9798091711849</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>125.551821236394</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,70 +3263,70 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>134.8668096631978</v>
+      </c>
+      <c r="C35" t="n">
         <v>153.1185395812873</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>153.1185395812873</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
         <v>153.1185395812873</v>
       </c>
-      <c r="G35" t="n">
-        <v>153.1185395812873</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
       <c r="W35" t="n">
-        <v>134.8668096631978</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3393,22 +3393,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>79.12792510414909</v>
       </c>
       <c r="T36" t="n">
-        <v>107.6094826951329</v>
+        <v>88.34448649060059</v>
       </c>
       <c r="U36" t="n">
         <v>133.3861360812861</v>
       </c>
       <c r="V36" t="n">
-        <v>140.2453411497366</v>
+        <v>140.2453411497365</v>
       </c>
       <c r="W36" t="n">
         <v>153.1185395812873</v>
       </c>
       <c r="X36" t="n">
-        <v>59.86292889961674</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>29.38878645675861</v>
       </c>
       <c r="C37" t="n">
-        <v>74.69157509893913</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>56.06022701852365</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>53.87871664688046</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>52.86580202324254</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>5.136266776116601</v>
+        <v>69.67192650775084</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.89522892756955</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.73814537748078</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>131.4613520372835</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>135.3903434285928</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>153.1185395812873</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>153.1185395812873</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>126.0294073524061</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
         <v>153.1185395812873</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>153.1185395812873</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>153.1185395812873</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,13 +3548,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.326206098755173</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>130.5406035644426</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>153.1185395812873</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>134.8668096631978</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>153.1185395812873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,16 +3579,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>73.97793765017863</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>56.01072950166926</v>
+        <v>80.153252988627</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>10.12009079588086</v>
       </c>
       <c r="E39" t="n">
-        <v>65.08983445571224</v>
+        <v>65.08983445571221</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>19.68019823680775</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,25 +3630,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>79.12792510414909</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>133.3861360812861</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>153.1185395812873</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>113.2177392037888</v>
+        <v>113.2177392037887</v>
       </c>
       <c r="Y39" t="n">
-        <v>113.1274497776157</v>
+        <v>113.1274497776156</v>
       </c>
     </row>
     <row r="40">
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>87.27673418224856</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>24.08023025007803</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.89522892756955</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>19.44059642654386</v>
+        <v>131.4613520372835</v>
       </c>
       <c r="T40" t="n">
         <v>135.3903434285928</v>
@@ -3718,13 +3718,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>153.1185395812873</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>153.1185395812873</v>
       </c>
       <c r="X40" t="n">
-        <v>133.1544093893484</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>153.1185395812873</v>
       </c>
       <c r="D41" t="n">
-        <v>134.8668096631978</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>153.1185395812873</v>
@@ -3752,7 +3752,7 @@
         <v>153.1185395812873</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>134.8668096631978</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>75.08053367025701</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>6.832086066271174</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3870,22 +3870,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>117.6001819096777</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>143.3768352958309</v>
+        <v>122.5792669620273</v>
       </c>
       <c r="V42" t="n">
-        <v>150.2360403642814</v>
+        <v>150.2360403642813</v>
       </c>
       <c r="W42" t="n">
-        <v>153.1185395812873</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>23.0587451897112</v>
+        <v>123.2084384183335</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>123.1181489921604</v>
       </c>
     </row>
     <row r="43">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.26743339679339</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>85.42643257331486</v>
+        <v>85.42643257331483</v>
       </c>
       <c r="H43" t="n">
-        <v>79.66262572229567</v>
+        <v>79.66262572229564</v>
       </c>
       <c r="I43" t="n">
-        <v>72.88592814211438</v>
+        <v>46.20986919715162</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3940,19 +3940,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>3.597496466550453</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>94.72884459202555</v>
       </c>
       <c r="S43" t="n">
-        <v>105.861468991254</v>
+        <v>141.4520512518283</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1185395812873</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>143.1451086038932</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>321.5798661590024</v>
+        <v>141.4528597172727</v>
       </c>
       <c r="C20" t="n">
-        <v>321.5798661590024</v>
+        <v>141.4528597172727</v>
       </c>
       <c r="D20" t="n">
-        <v>321.5798661590024</v>
+        <v>141.4528597172727</v>
       </c>
       <c r="E20" t="n">
-        <v>166.9146746627527</v>
+        <v>141.4528597172727</v>
       </c>
       <c r="F20" t="n">
-        <v>12.24948316650298</v>
+        <v>141.4528597172727</v>
       </c>
       <c r="G20" t="n">
-        <v>12.24948316650298</v>
+        <v>141.4528597172727</v>
       </c>
       <c r="H20" t="n">
-        <v>12.24948316650298</v>
+        <v>141.4528597172727</v>
       </c>
       <c r="I20" t="n">
         <v>12.24948316650298</v>
@@ -5765,37 +5765,37 @@
         <v>418.4391974483741</v>
       </c>
       <c r="O20" t="n">
-        <v>522.814103033098</v>
+        <v>522.8141030330981</v>
       </c>
       <c r="P20" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="Q20" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="R20" t="n">
-        <v>544.4897430160522</v>
+        <v>544.4897430160524</v>
       </c>
       <c r="S20" t="n">
-        <v>476.2450576552522</v>
+        <v>416.7568917018086</v>
       </c>
       <c r="T20" t="n">
-        <v>476.2450576552522</v>
+        <v>274.8060808139425</v>
       </c>
       <c r="U20" t="n">
-        <v>476.2450576552522</v>
+        <v>274.8060808139425</v>
       </c>
       <c r="V20" t="n">
-        <v>476.2450576552522</v>
+        <v>141.4528597172727</v>
       </c>
       <c r="W20" t="n">
-        <v>321.5798661590024</v>
+        <v>141.4528597172727</v>
       </c>
       <c r="X20" t="n">
-        <v>321.5798661590024</v>
+        <v>141.4528597172727</v>
       </c>
       <c r="Y20" t="n">
-        <v>321.5798661590024</v>
+        <v>141.4528597172727</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>12.24948316650298</v>
+        <v>400.0188004966585</v>
       </c>
       <c r="C21" t="n">
-        <v>12.24948316650298</v>
+        <v>308.9643033217375</v>
       </c>
       <c r="D21" t="n">
-        <v>12.24948316650298</v>
+        <v>243.4284257666922</v>
       </c>
       <c r="E21" t="n">
-        <v>12.24948316650298</v>
+        <v>167.5895028674427</v>
       </c>
       <c r="F21" t="n">
-        <v>12.24948316650298</v>
+        <v>104.4534770005337</v>
       </c>
       <c r="G21" t="n">
-        <v>12.24948316650298</v>
+        <v>49.12118368935518</v>
       </c>
       <c r="H21" t="n">
-        <v>12.24948316650298</v>
+        <v>19.1505802031405</v>
       </c>
       <c r="I21" t="n">
         <v>12.24948316650298</v>
@@ -5832,49 +5832,49 @@
         <v>12.24948316650298</v>
       </c>
       <c r="K21" t="n">
-        <v>137.6070432243404</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="L21" t="n">
-        <v>289.1943974098148</v>
+        <v>163.8368373519774</v>
       </c>
       <c r="M21" t="n">
-        <v>440.7817515952892</v>
+        <v>315.4241915374517</v>
       </c>
       <c r="N21" t="n">
-        <v>543.0795998118197</v>
+        <v>460.8868041396747</v>
       </c>
       <c r="O21" t="n">
-        <v>543.0795998118197</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="P21" t="n">
-        <v>543.0795998118197</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="Q21" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="R21" t="n">
-        <v>594.7031609842406</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="S21" t="n">
-        <v>594.7031609842406</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="T21" t="n">
-        <v>594.7031609842406</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="U21" t="n">
-        <v>567.4829855463643</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="V21" t="n">
-        <v>415.7294094208275</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="W21" t="n">
-        <v>261.0642179245777</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="X21" t="n">
-        <v>136.6112498252509</v>
+        <v>609.1973720692685</v>
       </c>
       <c r="Y21" t="n">
-        <v>12.24948316650298</v>
+        <v>484.8356054105205</v>
       </c>
     </row>
     <row r="22">
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.78713398820393</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="C22" t="n">
         <v>12.24948316650298</v>
@@ -5911,49 +5911,49 @@
         <v>12.24948316650298</v>
       </c>
       <c r="K22" t="n">
-        <v>71.94158757617141</v>
+        <v>71.94158757617144</v>
       </c>
       <c r="L22" t="n">
-        <v>180.9946139011768</v>
+        <v>180.9946139011769</v>
       </c>
       <c r="M22" t="n">
-        <v>301.9215534106915</v>
+        <v>301.9215534106916</v>
       </c>
       <c r="N22" t="n">
         <v>427.3513053834203</v>
       </c>
       <c r="O22" t="n">
-        <v>533.429483335612</v>
+        <v>533.4294833356121</v>
       </c>
       <c r="P22" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="Q22" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="R22" t="n">
-        <v>612.474158325149</v>
+        <v>516.7884567170424</v>
       </c>
       <c r="S22" t="n">
-        <v>534.4373913135892</v>
+        <v>373.9075968667108</v>
       </c>
       <c r="T22" t="n">
-        <v>534.4373913135892</v>
+        <v>227.0580588433395</v>
       </c>
       <c r="U22" t="n">
-        <v>534.4373913135892</v>
+        <v>72.39286734708972</v>
       </c>
       <c r="V22" t="n">
-        <v>379.7721998173395</v>
+        <v>72.39286734708972</v>
       </c>
       <c r="W22" t="n">
-        <v>379.7721998173395</v>
+        <v>72.39286734708972</v>
       </c>
       <c r="X22" t="n">
-        <v>235.1811810255281</v>
+        <v>72.39286734708972</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.78713398820393</v>
+        <v>12.24948316650298</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>120.1408893176925</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="C23" t="n">
-        <v>120.1408893176925</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="D23" t="n">
-        <v>120.1408893176925</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="E23" t="n">
-        <v>120.1408893176925</v>
+        <v>457.8089668288993</v>
       </c>
       <c r="F23" t="n">
-        <v>120.1408893176925</v>
+        <v>303.1437753326495</v>
       </c>
       <c r="G23" t="n">
-        <v>120.1408893176925</v>
+        <v>296.1180512135224</v>
       </c>
       <c r="H23" t="n">
-        <v>120.1408893176925</v>
+        <v>141.4528597172727</v>
       </c>
       <c r="I23" t="n">
         <v>12.24948316650298</v>
@@ -5990,49 +5990,49 @@
         <v>12.24948316650298</v>
       </c>
       <c r="K23" t="n">
-        <v>12.24948316650298</v>
+        <v>115.2644890774253</v>
       </c>
       <c r="L23" t="n">
-        <v>163.8368373519774</v>
+        <v>219.6393946621494</v>
       </c>
       <c r="M23" t="n">
-        <v>315.4241915374517</v>
+        <v>371.2267488476238</v>
       </c>
       <c r="N23" t="n">
-        <v>463.279208182501</v>
+        <v>522.8141030330981</v>
       </c>
       <c r="O23" t="n">
-        <v>612.474158325149</v>
+        <v>522.8141030330981</v>
       </c>
       <c r="P23" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="Q23" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="R23" t="n">
-        <v>544.4897430160522</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="S23" t="n">
-        <v>416.7568917018083</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="T23" t="n">
-        <v>274.8060808139422</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="U23" t="n">
-        <v>274.8060808139422</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="V23" t="n">
-        <v>274.8060808139422</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="W23" t="n">
-        <v>120.1408893176925</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="X23" t="n">
-        <v>120.1408893176925</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="Y23" t="n">
-        <v>120.1408893176925</v>
+        <v>612.4741583251491</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>308.9643033217377</v>
+        <v>49.12118368935518</v>
       </c>
       <c r="C24" t="n">
-        <v>308.9643033217377</v>
+        <v>49.12118368935518</v>
       </c>
       <c r="D24" t="n">
-        <v>243.4284257666924</v>
+        <v>49.12118368935518</v>
       </c>
       <c r="E24" t="n">
-        <v>167.5895028674428</v>
+        <v>49.12118368935518</v>
       </c>
       <c r="F24" t="n">
-        <v>104.4534770005338</v>
+        <v>49.12118368935518</v>
       </c>
       <c r="G24" t="n">
-        <v>49.12118368935523</v>
+        <v>49.12118368935518</v>
       </c>
       <c r="H24" t="n">
-        <v>19.15058020314053</v>
+        <v>19.1505802031405</v>
       </c>
       <c r="I24" t="n">
         <v>12.24948316650298</v>
@@ -6069,49 +6069,49 @@
         <v>12.24948316650298</v>
       </c>
       <c r="K24" t="n">
-        <v>88.31753725539653</v>
+        <v>137.6070432243404</v>
       </c>
       <c r="L24" t="n">
-        <v>88.31753725539653</v>
+        <v>137.6070432243404</v>
       </c>
       <c r="M24" t="n">
-        <v>239.9048914408709</v>
+        <v>137.6070432243404</v>
       </c>
       <c r="N24" t="n">
-        <v>239.9048914408709</v>
+        <v>239.904891440871</v>
       </c>
       <c r="O24" t="n">
-        <v>391.4922456263453</v>
+        <v>391.4922456263454</v>
       </c>
       <c r="P24" t="n">
-        <v>543.0795998118197</v>
+        <v>543.0795998118198</v>
       </c>
       <c r="Q24" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="R24" t="n">
-        <v>594.7031609842406</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="S24" t="n">
-        <v>594.7031609842406</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="T24" t="n">
-        <v>594.7031609842406</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="U24" t="n">
-        <v>449.8780748268357</v>
+        <v>604.3546860692164</v>
       </c>
       <c r="V24" t="n">
-        <v>449.8780748268357</v>
+        <v>452.6011099436797</v>
       </c>
       <c r="W24" t="n">
-        <v>449.8780748268357</v>
+        <v>297.9359184474299</v>
       </c>
       <c r="X24" t="n">
-        <v>393.7811082355997</v>
+        <v>173.4829503481031</v>
       </c>
       <c r="Y24" t="n">
-        <v>393.7811082355997</v>
+        <v>49.12118368935518</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>370.2737620520131</v>
+        <v>211.3341804983568</v>
       </c>
       <c r="C25" t="n">
-        <v>321.1424465216879</v>
+        <v>211.3341804983568</v>
       </c>
       <c r="D25" t="n">
-        <v>254.4243392155582</v>
+        <v>144.616073192227</v>
       </c>
       <c r="E25" t="n">
-        <v>189.9097777393711</v>
+        <v>144.616073192227</v>
       </c>
       <c r="F25" t="n">
-        <v>189.9097777393711</v>
+        <v>144.616073192227</v>
       </c>
       <c r="G25" t="n">
-        <v>103.6204519077399</v>
+        <v>144.616073192227</v>
       </c>
       <c r="H25" t="n">
-        <v>23.15315319835032</v>
+        <v>64.14877448283751</v>
       </c>
       <c r="I25" t="n">
-        <v>23.15315319835032</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="J25" t="n">
         <v>12.24948316650298</v>
       </c>
       <c r="K25" t="n">
-        <v>71.94158757617141</v>
+        <v>71.94158757617144</v>
       </c>
       <c r="L25" t="n">
-        <v>180.9946139011768</v>
+        <v>180.9946139011769</v>
       </c>
       <c r="M25" t="n">
         <v>301.9215534106915</v>
@@ -6160,37 +6160,37 @@
         <v>427.3513053834203</v>
       </c>
       <c r="O25" t="n">
-        <v>533.429483335612</v>
+        <v>533.4294833356121</v>
       </c>
       <c r="P25" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="Q25" t="n">
-        <v>608.8403235104515</v>
+        <v>608.8403235104516</v>
       </c>
       <c r="R25" t="n">
-        <v>513.1546219023448</v>
+        <v>608.8403235104516</v>
       </c>
       <c r="S25" t="n">
-        <v>370.2737620520131</v>
+        <v>608.8403235104516</v>
       </c>
       <c r="T25" t="n">
-        <v>370.2737620520131</v>
+        <v>608.8403235104516</v>
       </c>
       <c r="U25" t="n">
-        <v>370.2737620520131</v>
+        <v>608.8403235104516</v>
       </c>
       <c r="V25" t="n">
-        <v>370.2737620520131</v>
+        <v>608.8403235104516</v>
       </c>
       <c r="W25" t="n">
-        <v>370.2737620520131</v>
+        <v>454.1751320142018</v>
       </c>
       <c r="X25" t="n">
-        <v>370.2737620520131</v>
+        <v>309.5841132223905</v>
       </c>
       <c r="Y25" t="n">
-        <v>370.2737620520131</v>
+        <v>309.5841132223905</v>
       </c>
     </row>
     <row r="26">
@@ -6203,22 +6203,22 @@
         <v>457.8089668288993</v>
       </c>
       <c r="C26" t="n">
-        <v>321.5798661590024</v>
+        <v>457.8089668288993</v>
       </c>
       <c r="D26" t="n">
-        <v>166.9146746627527</v>
+        <v>457.8089668288993</v>
       </c>
       <c r="E26" t="n">
-        <v>12.24948316650298</v>
+        <v>457.8089668288993</v>
       </c>
       <c r="F26" t="n">
-        <v>12.24948316650298</v>
+        <v>450.7832427097723</v>
       </c>
       <c r="G26" t="n">
-        <v>12.24948316650298</v>
+        <v>296.1180512135224</v>
       </c>
       <c r="H26" t="n">
-        <v>12.24948316650298</v>
+        <v>141.4528597172727</v>
       </c>
       <c r="I26" t="n">
         <v>12.24948316650298</v>
@@ -6227,46 +6227,46 @@
         <v>12.24948316650298</v>
       </c>
       <c r="K26" t="n">
-        <v>12.24948316650298</v>
+        <v>115.2644890774253</v>
       </c>
       <c r="L26" t="n">
-        <v>70.44444451950125</v>
+        <v>266.8518432628997</v>
       </c>
       <c r="M26" t="n">
-        <v>222.0317987049756</v>
+        <v>371.2267488476238</v>
       </c>
       <c r="N26" t="n">
-        <v>373.61915289045</v>
+        <v>522.8141030330981</v>
       </c>
       <c r="O26" t="n">
-        <v>522.814103033098</v>
+        <v>522.8141030330981</v>
       </c>
       <c r="P26" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="Q26" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="R26" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="S26" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="T26" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="U26" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="V26" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="W26" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="X26" t="n">
-        <v>612.474158325149</v>
+        <v>457.8089668288993</v>
       </c>
       <c r="Y26" t="n">
         <v>457.8089668288993</v>
@@ -6279,7 +6279,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>67.08076128413256</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="C27" t="n">
         <v>12.24948316650298</v>
@@ -6306,49 +6306,49 @@
         <v>12.24948316650298</v>
       </c>
       <c r="K27" t="n">
+        <v>88.31753725539659</v>
+      </c>
+      <c r="L27" t="n">
+        <v>239.904891440871</v>
+      </c>
+      <c r="M27" t="n">
+        <v>391.4922456263454</v>
+      </c>
+      <c r="N27" t="n">
+        <v>391.4922456263454</v>
+      </c>
+      <c r="O27" t="n">
+        <v>543.0795998118198</v>
+      </c>
+      <c r="P27" t="n">
+        <v>543.0795998118198</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>612.4741583251491</v>
+      </c>
+      <c r="R27" t="n">
+        <v>612.4741583251491</v>
+      </c>
+      <c r="S27" t="n">
+        <v>612.4741583251491</v>
+      </c>
+      <c r="T27" t="n">
+        <v>493.6860957901212</v>
+      </c>
+      <c r="U27" t="n">
+        <v>348.8610096327162</v>
+      </c>
+      <c r="V27" t="n">
+        <v>197.1074335071795</v>
+      </c>
+      <c r="W27" t="n">
+        <v>197.1074335071795</v>
+      </c>
+      <c r="X27" t="n">
+        <v>136.6112498252509</v>
+      </c>
+      <c r="Y27" t="n">
         <v>12.24948316650298</v>
-      </c>
-      <c r="L27" t="n">
-        <v>163.8368373519774</v>
-      </c>
-      <c r="M27" t="n">
-        <v>239.9048914408709</v>
-      </c>
-      <c r="N27" t="n">
-        <v>391.4922456263453</v>
-      </c>
-      <c r="O27" t="n">
-        <v>543.0795998118197</v>
-      </c>
-      <c r="P27" t="n">
-        <v>543.0795998118197</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>612.474158325149</v>
-      </c>
-      <c r="R27" t="n">
-        <v>612.474158325149</v>
-      </c>
-      <c r="S27" t="n">
-        <v>612.474158325149</v>
-      </c>
-      <c r="T27" t="n">
-        <v>612.474158325149</v>
-      </c>
-      <c r="U27" t="n">
-        <v>467.6490721677441</v>
-      </c>
-      <c r="V27" t="n">
-        <v>315.8954960422074</v>
-      </c>
-      <c r="W27" t="n">
-        <v>315.8954960422074</v>
-      </c>
-      <c r="X27" t="n">
-        <v>191.4425279428805</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>67.08076128413256</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>62.86705493273146</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="C28" t="n">
-        <v>62.86705493273146</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="D28" t="n">
-        <v>62.86705493273146</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="E28" t="n">
-        <v>62.86705493273146</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="F28" t="n">
-        <v>62.86705493273146</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="G28" t="n">
-        <v>62.86705493273146</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="H28" t="n">
-        <v>62.86705493273146</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="I28" t="n">
-        <v>23.15315319835032</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="J28" t="n">
         <v>12.24948316650298</v>
@@ -6391,43 +6391,43 @@
         <v>180.9946139011769</v>
       </c>
       <c r="M28" t="n">
-        <v>301.9215534106915</v>
+        <v>301.9215534106916</v>
       </c>
       <c r="N28" t="n">
         <v>427.3513053834203</v>
       </c>
       <c r="O28" t="n">
-        <v>533.429483335612</v>
+        <v>533.4294833356121</v>
       </c>
       <c r="P28" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="Q28" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="R28" t="n">
-        <v>516.7884567170423</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="S28" t="n">
-        <v>516.7884567170423</v>
+        <v>469.5932984748175</v>
       </c>
       <c r="T28" t="n">
-        <v>516.7884567170423</v>
+        <v>469.5932984748175</v>
       </c>
       <c r="U28" t="n">
-        <v>362.1232652207926</v>
+        <v>469.5932984748175</v>
       </c>
       <c r="V28" t="n">
-        <v>207.4580737245428</v>
+        <v>469.5932984748175</v>
       </c>
       <c r="W28" t="n">
-        <v>207.4580737245428</v>
+        <v>392.4844817196721</v>
       </c>
       <c r="X28" t="n">
-        <v>62.86705493273146</v>
+        <v>247.8934629278608</v>
       </c>
       <c r="Y28" t="n">
-        <v>62.86705493273146</v>
+        <v>110.4994158905367</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>502.5123043518134</v>
+        <v>148.4785838363997</v>
       </c>
       <c r="C29" t="n">
-        <v>502.5123043518134</v>
+        <v>148.4785838363997</v>
       </c>
       <c r="D29" t="n">
-        <v>502.5123043518134</v>
+        <v>148.4785838363997</v>
       </c>
       <c r="E29" t="n">
-        <v>347.8471128555637</v>
+        <v>148.4785838363997</v>
       </c>
       <c r="F29" t="n">
-        <v>193.1819213593139</v>
+        <v>148.4785838363997</v>
       </c>
       <c r="G29" t="n">
-        <v>38.5167298630642</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="H29" t="n">
         <v>12.24948316650298</v>
@@ -6464,49 +6464,49 @@
         <v>12.24948316650298</v>
       </c>
       <c r="K29" t="n">
-        <v>70.44444451950125</v>
+        <v>115.2644890774253</v>
       </c>
       <c r="L29" t="n">
-        <v>70.44444451950125</v>
+        <v>266.8518432628997</v>
       </c>
       <c r="M29" t="n">
-        <v>222.0317987049756</v>
+        <v>418.4391974483741</v>
       </c>
       <c r="N29" t="n">
-        <v>373.61915289045</v>
+        <v>570.0265516338485</v>
       </c>
       <c r="O29" t="n">
-        <v>522.814103033098</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="P29" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="Q29" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="R29" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="S29" t="n">
-        <v>502.5123043518134</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="T29" t="n">
-        <v>502.5123043518134</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="U29" t="n">
-        <v>502.5123043518134</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="V29" t="n">
-        <v>502.5123043518134</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="W29" t="n">
-        <v>502.5123043518134</v>
+        <v>457.8089668288993</v>
       </c>
       <c r="X29" t="n">
-        <v>502.5123043518134</v>
+        <v>303.1437753326495</v>
       </c>
       <c r="Y29" t="n">
-        <v>502.5123043518134</v>
+        <v>148.4785838363997</v>
       </c>
     </row>
     <row r="30">
@@ -6516,10 +6516,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>12.24948316650298</v>
+        <v>91.68769268451815</v>
       </c>
       <c r="C30" t="n">
-        <v>12.24948316650298</v>
+        <v>18.40419285050541</v>
       </c>
       <c r="D30" t="n">
         <v>12.24948316650298</v>
@@ -6543,49 +6543,49 @@
         <v>12.24948316650298</v>
       </c>
       <c r="K30" t="n">
-        <v>12.24948316650298</v>
+        <v>137.6070432243404</v>
       </c>
       <c r="L30" t="n">
-        <v>12.24948316650298</v>
+        <v>289.1943974098148</v>
       </c>
       <c r="M30" t="n">
-        <v>157.7120957687258</v>
+        <v>440.7817515952892</v>
       </c>
       <c r="N30" t="n">
-        <v>309.2994499542002</v>
+        <v>592.3691057807636</v>
       </c>
       <c r="O30" t="n">
-        <v>460.8868041396746</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="P30" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="Q30" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="R30" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="S30" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="T30" t="n">
-        <v>511.4570931310293</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="U30" t="n">
-        <v>511.4570931310293</v>
+        <v>485.4200695086524</v>
       </c>
       <c r="V30" t="n">
-        <v>377.4745143464009</v>
+        <v>351.437490724024</v>
       </c>
       <c r="W30" t="n">
-        <v>224.4066870653135</v>
+        <v>198.3696634429367</v>
       </c>
       <c r="X30" t="n">
-        <v>117.724716306895</v>
+        <v>91.68769268451815</v>
       </c>
       <c r="Y30" t="n">
-        <v>12.24948316650298</v>
+        <v>91.68769268451815</v>
       </c>
     </row>
     <row r="31">
@@ -6619,52 +6619,52 @@
         <v>12.24948316650298</v>
       </c>
       <c r="J31" t="n">
-        <v>18.98015066211363</v>
+        <v>18.98015066211364</v>
       </c>
       <c r="K31" t="n">
         <v>96.08960956560631</v>
       </c>
       <c r="L31" t="n">
-        <v>196.6256187450574</v>
+        <v>196.6256187450575</v>
       </c>
       <c r="M31" t="n">
-        <v>334.9699127483963</v>
+        <v>334.9699127483964</v>
       </c>
       <c r="N31" t="n">
-        <v>477.8170192149493</v>
+        <v>477.8170192149494</v>
       </c>
       <c r="O31" t="n">
-        <v>502.1562958498486</v>
+        <v>502.1562958498487</v>
       </c>
       <c r="P31" t="n">
-        <v>598.6183253332098</v>
+        <v>598.6183253332099</v>
       </c>
       <c r="Q31" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="R31" t="n">
-        <v>612.474158325149</v>
+        <v>534.5594540579508</v>
       </c>
       <c r="S31" t="n">
-        <v>531.1373422245908</v>
+        <v>534.5594540579508</v>
       </c>
       <c r="T31" t="n">
-        <v>402.0588015421279</v>
+        <v>405.4809133754878</v>
       </c>
       <c r="U31" t="n">
-        <v>247.3936100458781</v>
+        <v>250.8157218792381</v>
       </c>
       <c r="V31" t="n">
-        <v>247.3936100458781</v>
+        <v>166.9146746627528</v>
       </c>
       <c r="W31" t="n">
-        <v>92.7284185496284</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="X31" t="n">
-        <v>92.7284185496284</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="Y31" t="n">
-        <v>92.7284185496284</v>
+        <v>12.24948316650298</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>321.5798661590024</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="C32" t="n">
-        <v>321.5798661590024</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="D32" t="n">
-        <v>321.5798661590024</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="E32" t="n">
-        <v>321.5798661590024</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="F32" t="n">
-        <v>166.9146746627527</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="G32" t="n">
         <v>12.24948316650298</v>
@@ -6701,49 +6701,49 @@
         <v>12.24948316650298</v>
       </c>
       <c r="K32" t="n">
-        <v>70.44444451950125</v>
+        <v>115.2644890774253</v>
       </c>
       <c r="L32" t="n">
-        <v>70.44444451950125</v>
+        <v>266.8518432628997</v>
       </c>
       <c r="M32" t="n">
-        <v>222.0317987049756</v>
+        <v>418.4391974483741</v>
       </c>
       <c r="N32" t="n">
-        <v>373.61915289045</v>
+        <v>570.0265516338485</v>
       </c>
       <c r="O32" t="n">
-        <v>522.814103033098</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="P32" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="Q32" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="R32" t="n">
-        <v>562.2607403569606</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="S32" t="n">
-        <v>452.298886383625</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="T32" t="n">
-        <v>452.298886383625</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="U32" t="n">
-        <v>321.5798661590024</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="V32" t="n">
-        <v>321.5798661590024</v>
+        <v>457.8089668288993</v>
       </c>
       <c r="W32" t="n">
-        <v>321.5798661590024</v>
+        <v>303.1437753326495</v>
       </c>
       <c r="X32" t="n">
-        <v>321.5798661590024</v>
+        <v>303.1437753326495</v>
       </c>
       <c r="Y32" t="n">
-        <v>321.5798661590024</v>
+        <v>148.4785838363997</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>115.682437250845</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="C33" t="n">
-        <v>115.682437250845</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="D33" t="n">
-        <v>115.682437250845</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="E33" t="n">
-        <v>57.61451169250374</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="F33" t="n">
         <v>12.24948316650298</v>
@@ -6780,49 +6780,49 @@
         <v>12.24948316650298</v>
       </c>
       <c r="K33" t="n">
+        <v>88.31753725539659</v>
+      </c>
+      <c r="L33" t="n">
+        <v>88.31753725539659</v>
+      </c>
+      <c r="M33" t="n">
+        <v>88.31753725539659</v>
+      </c>
+      <c r="N33" t="n">
+        <v>239.904891440871</v>
+      </c>
+      <c r="O33" t="n">
+        <v>391.4922456263454</v>
+      </c>
+      <c r="P33" t="n">
+        <v>543.0795998118198</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>612.4741583251491</v>
+      </c>
+      <c r="R33" t="n">
+        <v>612.4741583251491</v>
+      </c>
+      <c r="S33" t="n">
+        <v>612.4741583251491</v>
+      </c>
+      <c r="T33" t="n">
+        <v>511.4570931310294</v>
+      </c>
+      <c r="U33" t="n">
+        <v>384.4030043145327</v>
+      </c>
+      <c r="V33" t="n">
+        <v>250.4204255299043</v>
+      </c>
+      <c r="W33" t="n">
+        <v>97.35259824881697</v>
+      </c>
+      <c r="X33" t="n">
         <v>12.24948316650298</v>
       </c>
-      <c r="L33" t="n">
-        <v>163.8368373519774</v>
-      </c>
-      <c r="M33" t="n">
-        <v>315.4241915374517</v>
-      </c>
-      <c r="N33" t="n">
-        <v>315.4241915374517</v>
-      </c>
-      <c r="O33" t="n">
-        <v>460.8868041396746</v>
-      </c>
-      <c r="P33" t="n">
-        <v>612.474158325149</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>612.474158325149</v>
-      </c>
-      <c r="R33" t="n">
-        <v>612.474158325149</v>
-      </c>
-      <c r="S33" t="n">
-        <v>612.474158325149</v>
-      </c>
-      <c r="T33" t="n">
-        <v>612.474158325149</v>
-      </c>
-      <c r="U33" t="n">
-        <v>485.4200695086523</v>
-      </c>
-      <c r="V33" t="n">
-        <v>351.4374907240239</v>
-      </c>
-      <c r="W33" t="n">
-        <v>328.9551773271031</v>
-      </c>
-      <c r="X33" t="n">
-        <v>222.2732065686846</v>
-      </c>
       <c r="Y33" t="n">
-        <v>115.682437250845</v>
+        <v>12.24948316650298</v>
       </c>
     </row>
     <row r="34">
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>175.4556974066293</v>
+        <v>52.36412410980031</v>
       </c>
       <c r="C34" t="n">
-        <v>107.6890439258367</v>
+        <v>52.36412410980031</v>
       </c>
       <c r="D34" t="n">
-        <v>107.6890439258367</v>
+        <v>52.36412410980031</v>
       </c>
       <c r="E34" t="n">
-        <v>60.94547979055787</v>
+        <v>52.36412410980031</v>
       </c>
       <c r="F34" t="n">
-        <v>60.94547979055787</v>
+        <v>52.36412410980031</v>
       </c>
       <c r="G34" t="n">
-        <v>60.94547979055787</v>
+        <v>52.36412410980031</v>
       </c>
       <c r="H34" t="n">
-        <v>12.24948316650298</v>
+        <v>52.36412410980031</v>
       </c>
       <c r="I34" t="n">
         <v>12.24948316650298</v>
       </c>
       <c r="J34" t="n">
-        <v>18.98015066211363</v>
+        <v>18.98015066211364</v>
       </c>
       <c r="K34" t="n">
         <v>96.08960956560631</v>
@@ -6865,43 +6865,43 @@
         <v>123.4037345733193</v>
       </c>
       <c r="M34" t="n">
-        <v>235.8136569372796</v>
+        <v>261.7480285766582</v>
       </c>
       <c r="N34" t="n">
-        <v>378.6607634038326</v>
+        <v>404.5951350432111</v>
       </c>
       <c r="O34" t="n">
-        <v>502.1562958498486</v>
+        <v>502.1562958498487</v>
       </c>
       <c r="P34" t="n">
-        <v>598.6183253332098</v>
+        <v>598.6183253332099</v>
       </c>
       <c r="Q34" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="R34" t="n">
-        <v>534.5594540579507</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="S34" t="n">
-        <v>409.4495915485273</v>
+        <v>487.3642958157258</v>
       </c>
       <c r="T34" t="n">
-        <v>409.4495915485273</v>
+        <v>487.3642958157258</v>
       </c>
       <c r="U34" t="n">
-        <v>409.4495915485273</v>
+        <v>332.699104319476</v>
       </c>
       <c r="V34" t="n">
-        <v>255.9346327897547</v>
+        <v>179.1841455607034</v>
       </c>
       <c r="W34" t="n">
-        <v>255.9346327897547</v>
+        <v>179.1841455607034</v>
       </c>
       <c r="X34" t="n">
-        <v>255.9346327897547</v>
+        <v>52.36412410980031</v>
       </c>
       <c r="Y34" t="n">
-        <v>255.9346327897547</v>
+        <v>52.36412410980031</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>321.5798661590024</v>
+        <v>321.5798661590026</v>
       </c>
       <c r="C35" t="n">
-        <v>321.5798661590024</v>
+        <v>166.9146746627528</v>
       </c>
       <c r="D35" t="n">
-        <v>321.5798661590024</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="E35" t="n">
-        <v>321.5798661590024</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="F35" t="n">
-        <v>166.9146746627527</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="G35" t="n">
         <v>12.24948316650298</v>
@@ -6938,49 +6938,49 @@
         <v>12.24948316650298</v>
       </c>
       <c r="K35" t="n">
-        <v>115.2644890774253</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="L35" t="n">
-        <v>266.8518432628997</v>
+        <v>70.4444445195013</v>
       </c>
       <c r="M35" t="n">
-        <v>266.8518432628997</v>
+        <v>222.0317987049757</v>
       </c>
       <c r="N35" t="n">
-        <v>373.61915289045</v>
+        <v>373.6191528904501</v>
       </c>
       <c r="O35" t="n">
-        <v>522.814103033098</v>
+        <v>522.8141030330981</v>
       </c>
       <c r="P35" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="Q35" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="R35" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="S35" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="T35" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="U35" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="V35" t="n">
-        <v>612.474158325149</v>
+        <v>457.8089668288993</v>
       </c>
       <c r="W35" t="n">
-        <v>476.2450576552522</v>
+        <v>457.8089668288993</v>
       </c>
       <c r="X35" t="n">
-        <v>476.2450576552522</v>
+        <v>457.8089668288993</v>
       </c>
       <c r="Y35" t="n">
-        <v>476.2450576552522</v>
+        <v>457.8089668288993</v>
       </c>
     </row>
     <row r="36">
@@ -7020,40 +7020,40 @@
         <v>12.24948316650298</v>
       </c>
       <c r="L36" t="n">
-        <v>163.8368373519774</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="M36" t="n">
-        <v>163.8368373519774</v>
+        <v>157.7120957687259</v>
       </c>
       <c r="N36" t="n">
-        <v>239.9048914408709</v>
+        <v>309.2994499542003</v>
       </c>
       <c r="O36" t="n">
-        <v>391.4922456263453</v>
+        <v>460.8868041396747</v>
       </c>
       <c r="P36" t="n">
-        <v>543.0795998118197</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="Q36" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="R36" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="S36" t="n">
-        <v>612.474158325149</v>
+        <v>532.546961250251</v>
       </c>
       <c r="T36" t="n">
-        <v>503.7777111583481</v>
+        <v>443.3101062092403</v>
       </c>
       <c r="U36" t="n">
-        <v>369.0442403691702</v>
+        <v>308.5766354200624</v>
       </c>
       <c r="V36" t="n">
-        <v>227.3822796118606</v>
+        <v>166.9146746627528</v>
       </c>
       <c r="W36" t="n">
-        <v>72.71708811561081</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="X36" t="n">
         <v>12.24948316650298</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>257.3329049480205</v>
+        <v>146.1557007779377</v>
       </c>
       <c r="C37" t="n">
-        <v>181.8868694945467</v>
+        <v>146.1557007779377</v>
       </c>
       <c r="D37" t="n">
-        <v>125.260377556644</v>
+        <v>146.1557007779377</v>
       </c>
       <c r="E37" t="n">
-        <v>70.83743144868393</v>
+        <v>146.1557007779377</v>
       </c>
       <c r="F37" t="n">
-        <v>17.43763142520662</v>
+        <v>146.1557007779377</v>
       </c>
       <c r="G37" t="n">
-        <v>17.43763142520662</v>
+        <v>146.1557007779377</v>
       </c>
       <c r="H37" t="n">
-        <v>12.24948316650298</v>
+        <v>75.78001743677527</v>
       </c>
       <c r="I37" t="n">
         <v>12.24948316650298</v>
@@ -7096,49 +7096,49 @@
         <v>12.24948316650298</v>
       </c>
       <c r="K37" t="n">
-        <v>81.83237979857078</v>
+        <v>81.83237979857081</v>
       </c>
       <c r="L37" t="n">
-        <v>200.7761983459756</v>
+        <v>135.1021742910651</v>
       </c>
       <c r="M37" t="n">
-        <v>331.5939300778896</v>
+        <v>265.9199060229791</v>
       </c>
       <c r="N37" t="n">
-        <v>401.2404502181071</v>
+        <v>401.2404502181072</v>
       </c>
       <c r="O37" t="n">
-        <v>517.2094203926982</v>
+        <v>517.2094203926983</v>
       </c>
       <c r="P37" t="n">
-        <v>606.1448876046346</v>
+        <v>606.1448876046347</v>
       </c>
       <c r="Q37" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="R37" t="n">
-        <v>526.8800720852694</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="S37" t="n">
-        <v>394.0908276031648</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="T37" t="n">
-        <v>257.3329049480205</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="U37" t="n">
-        <v>257.3329049480205</v>
+        <v>457.8089668288993</v>
       </c>
       <c r="V37" t="n">
-        <v>257.3329049480205</v>
+        <v>457.8089668288993</v>
       </c>
       <c r="W37" t="n">
-        <v>257.3329049480205</v>
+        <v>303.1437753326495</v>
       </c>
       <c r="X37" t="n">
-        <v>257.3329049480205</v>
+        <v>303.1437753326495</v>
       </c>
       <c r="Y37" t="n">
-        <v>257.3329049480205</v>
+        <v>175.8413436635525</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>12.24948316650298</v>
+        <v>476.2450576552524</v>
       </c>
       <c r="C38" t="n">
-        <v>12.24948316650298</v>
+        <v>476.2450576552524</v>
       </c>
       <c r="D38" t="n">
-        <v>12.24948316650298</v>
+        <v>321.5798661590026</v>
       </c>
       <c r="E38" t="n">
-        <v>12.24948316650298</v>
+        <v>321.5798661590026</v>
       </c>
       <c r="F38" t="n">
-        <v>12.24948316650298</v>
+        <v>166.9146746627528</v>
       </c>
       <c r="G38" t="n">
-        <v>12.24948316650298</v>
+        <v>166.9146746627528</v>
       </c>
       <c r="H38" t="n">
         <v>12.24948316650298</v>
@@ -7175,49 +7175,49 @@
         <v>12.24948316650298</v>
       </c>
       <c r="K38" t="n">
-        <v>70.44444451950125</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="L38" t="n">
-        <v>70.44444451950125</v>
+        <v>70.4444445195013</v>
       </c>
       <c r="M38" t="n">
-        <v>222.0317987049756</v>
+        <v>222.0317987049757</v>
       </c>
       <c r="N38" t="n">
-        <v>373.61915289045</v>
+        <v>373.6191528904501</v>
       </c>
       <c r="O38" t="n">
-        <v>522.814103033098</v>
+        <v>522.8141030330981</v>
       </c>
       <c r="P38" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="Q38" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="R38" t="n">
-        <v>612.474158325149</v>
+        <v>608.1042531748914</v>
       </c>
       <c r="S38" t="n">
-        <v>612.474158325149</v>
+        <v>608.1042531748914</v>
       </c>
       <c r="T38" t="n">
-        <v>612.474158325149</v>
+        <v>476.2450576552524</v>
       </c>
       <c r="U38" t="n">
-        <v>612.474158325149</v>
+        <v>476.2450576552524</v>
       </c>
       <c r="V38" t="n">
-        <v>612.474158325149</v>
+        <v>476.2450576552524</v>
       </c>
       <c r="W38" t="n">
-        <v>457.8089668288993</v>
+        <v>476.2450576552524</v>
       </c>
       <c r="X38" t="n">
-        <v>321.5798661590024</v>
+        <v>476.2450576552524</v>
       </c>
       <c r="Y38" t="n">
-        <v>166.9146746627527</v>
+        <v>476.2450576552524</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>154.4522732616437</v>
+        <v>169.1819864394525</v>
       </c>
       <c r="C39" t="n">
-        <v>97.87577881551309</v>
+        <v>88.2191046327586</v>
       </c>
       <c r="D39" t="n">
-        <v>97.87577881551309</v>
+        <v>77.99679069752541</v>
       </c>
       <c r="E39" t="n">
-        <v>32.12847128449062</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="F39" t="n">
-        <v>32.12847128449062</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="G39" t="n">
-        <v>32.12847128449062</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="H39" t="n">
         <v>12.24948316650298</v>
@@ -7254,49 +7254,49 @@
         <v>12.24948316650298</v>
       </c>
       <c r="K39" t="n">
-        <v>12.24948316650298</v>
+        <v>88.31753725539659</v>
       </c>
       <c r="L39" t="n">
-        <v>157.7120957687258</v>
+        <v>88.31753725539659</v>
       </c>
       <c r="M39" t="n">
-        <v>309.2994499542002</v>
+        <v>88.31753725539659</v>
       </c>
       <c r="N39" t="n">
-        <v>460.8868041396746</v>
+        <v>239.904891440871</v>
       </c>
       <c r="O39" t="n">
-        <v>612.474158325149</v>
+        <v>391.4922456263454</v>
       </c>
       <c r="P39" t="n">
-        <v>612.474158325149</v>
+        <v>543.0795998118198</v>
       </c>
       <c r="Q39" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="R39" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="S39" t="n">
-        <v>612.474158325149</v>
+        <v>532.546961250251</v>
       </c>
       <c r="T39" t="n">
-        <v>612.474158325149</v>
+        <v>532.546961250251</v>
       </c>
       <c r="U39" t="n">
-        <v>612.474158325149</v>
+        <v>397.8134904610731</v>
       </c>
       <c r="V39" t="n">
-        <v>612.474158325149</v>
+        <v>397.8134904610731</v>
       </c>
       <c r="W39" t="n">
-        <v>457.8089668288993</v>
+        <v>397.8134904610731</v>
       </c>
       <c r="X39" t="n">
-        <v>343.4476140977995</v>
+        <v>283.4521377299734</v>
       </c>
       <c r="Y39" t="n">
-        <v>229.1774628072786</v>
+        <v>169.1819864394525</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>12.24948316650298</v>
+        <v>100.103482335844</v>
       </c>
       <c r="C40" t="n">
-        <v>12.24948316650298</v>
+        <v>75.78001743677527</v>
       </c>
       <c r="D40" t="n">
-        <v>12.24948316650298</v>
+        <v>75.78001743677527</v>
       </c>
       <c r="E40" t="n">
-        <v>12.24948316650298</v>
+        <v>75.78001743677527</v>
       </c>
       <c r="F40" t="n">
-        <v>12.24948316650298</v>
+        <v>75.78001743677527</v>
       </c>
       <c r="G40" t="n">
-        <v>12.24948316650298</v>
+        <v>75.78001743677527</v>
       </c>
       <c r="H40" t="n">
-        <v>12.24948316650298</v>
+        <v>75.78001743677527</v>
       </c>
       <c r="I40" t="n">
         <v>12.24948316650298</v>
@@ -7333,49 +7333,49 @@
         <v>12.24948316650298</v>
       </c>
       <c r="K40" t="n">
-        <v>81.83237979857078</v>
+        <v>81.83237979857081</v>
       </c>
       <c r="L40" t="n">
         <v>200.7761983459756</v>
       </c>
       <c r="M40" t="n">
-        <v>265.919906022979</v>
+        <v>265.9199060229791</v>
       </c>
       <c r="N40" t="n">
-        <v>401.2404502181071</v>
+        <v>401.2404502181072</v>
       </c>
       <c r="O40" t="n">
-        <v>517.2094203926982</v>
+        <v>517.2094203926983</v>
       </c>
       <c r="P40" t="n">
-        <v>606.1448876046346</v>
+        <v>606.1448876046347</v>
       </c>
       <c r="Q40" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="R40" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="S40" t="n">
-        <v>592.837192237731</v>
+        <v>479.6849138430446</v>
       </c>
       <c r="T40" t="n">
-        <v>456.0792695825867</v>
+        <v>342.9269911879004</v>
       </c>
       <c r="U40" t="n">
-        <v>456.0792695825867</v>
+        <v>342.9269911879004</v>
       </c>
       <c r="V40" t="n">
-        <v>301.414078086337</v>
+        <v>342.9269911879004</v>
       </c>
       <c r="W40" t="n">
-        <v>146.7488865900873</v>
+        <v>188.2617996916506</v>
       </c>
       <c r="X40" t="n">
-        <v>12.24948316650298</v>
+        <v>188.2617996916506</v>
       </c>
       <c r="Y40" t="n">
-        <v>12.24948316650298</v>
+        <v>188.2617996916506</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="C41" t="n">
         <v>457.8089668288993</v>
       </c>
       <c r="D41" t="n">
-        <v>321.5798661590024</v>
+        <v>457.8089668288993</v>
       </c>
       <c r="E41" t="n">
-        <v>166.9146746627527</v>
+        <v>303.1437753326495</v>
       </c>
       <c r="F41" t="n">
-        <v>12.24948316650298</v>
+        <v>148.4785838363997</v>
       </c>
       <c r="G41" t="n">
         <v>12.24948316650298</v>
@@ -7412,49 +7412,49 @@
         <v>12.24948316650298</v>
       </c>
       <c r="K41" t="n">
-        <v>115.2644890774253</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="L41" t="n">
-        <v>266.8518432628997</v>
+        <v>163.8368373519774</v>
       </c>
       <c r="M41" t="n">
-        <v>418.4391974483741</v>
+        <v>315.4241915374517</v>
       </c>
       <c r="N41" t="n">
-        <v>570.0265516338485</v>
+        <v>463.2792081825011</v>
       </c>
       <c r="O41" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="P41" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="Q41" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="R41" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="S41" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="T41" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="U41" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="V41" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="W41" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="X41" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="Y41" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.15058020314053</v>
+        <v>88.08840606575249</v>
       </c>
       <c r="C42" t="n">
-        <v>19.15058020314053</v>
+        <v>88.08840606575249</v>
       </c>
       <c r="D42" t="n">
-        <v>19.15058020314053</v>
+        <v>88.08840606575249</v>
       </c>
       <c r="E42" t="n">
-        <v>19.15058020314053</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="F42" t="n">
-        <v>19.15058020314053</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="G42" t="n">
-        <v>19.15058020314053</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="H42" t="n">
-        <v>19.15058020314053</v>
+        <v>12.24948316650298</v>
       </c>
       <c r="I42" t="n">
         <v>12.24948316650298</v>
@@ -7491,49 +7491,49 @@
         <v>12.24948316650298</v>
       </c>
       <c r="K42" t="n">
-        <v>12.24948316650298</v>
+        <v>137.6070432243404</v>
       </c>
       <c r="L42" t="n">
-        <v>12.24948316650298</v>
+        <v>157.7120957687259</v>
       </c>
       <c r="M42" t="n">
-        <v>88.31753725539653</v>
+        <v>309.2994499542003</v>
       </c>
       <c r="N42" t="n">
-        <v>239.9048914408709</v>
+        <v>460.8868041396747</v>
       </c>
       <c r="O42" t="n">
-        <v>391.4922456263453</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="P42" t="n">
-        <v>543.0795998118197</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="Q42" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="R42" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="S42" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="T42" t="n">
-        <v>493.686095790121</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="U42" t="n">
-        <v>348.8610096327161</v>
+        <v>488.656716949364</v>
       </c>
       <c r="V42" t="n">
-        <v>197.1074335071794</v>
+        <v>336.9031408238272</v>
       </c>
       <c r="W42" t="n">
-        <v>42.44224201092962</v>
+        <v>336.9031408238272</v>
       </c>
       <c r="X42" t="n">
-        <v>19.15058020314053</v>
+        <v>212.4501727245004</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.15058020314053</v>
+        <v>88.08840606575249</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>252.6282573460231</v>
+        <v>225.6827432602021</v>
       </c>
       <c r="C43" t="n">
-        <v>252.6282573460231</v>
+        <v>225.6827432602021</v>
       </c>
       <c r="D43" t="n">
-        <v>252.6282573460231</v>
+        <v>225.6827432602021</v>
       </c>
       <c r="E43" t="n">
-        <v>252.6282573460231</v>
+        <v>225.6827432602021</v>
       </c>
       <c r="F43" t="n">
-        <v>252.6282573460231</v>
+        <v>225.6827432602021</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3389315143919</v>
+        <v>139.3934174285709</v>
       </c>
       <c r="H43" t="n">
-        <v>85.87163280500236</v>
+        <v>58.92611871918139</v>
       </c>
       <c r="I43" t="n">
         <v>12.24948316650298</v>
@@ -7570,49 +7570,49 @@
         <v>12.24948316650298</v>
       </c>
       <c r="K43" t="n">
-        <v>71.9415875761714</v>
+        <v>71.94158757617144</v>
       </c>
       <c r="L43" t="n">
-        <v>180.9946139011768</v>
+        <v>180.9946139011769</v>
       </c>
       <c r="M43" t="n">
-        <v>301.9215534106914</v>
+        <v>301.9215534106915</v>
       </c>
       <c r="N43" t="n">
         <v>427.3513053834203</v>
       </c>
       <c r="O43" t="n">
-        <v>533.429483335612</v>
+        <v>533.4294833356121</v>
       </c>
       <c r="P43" t="n">
-        <v>612.474158325149</v>
+        <v>612.4741583251491</v>
       </c>
       <c r="Q43" t="n">
-        <v>612.474158325149</v>
+        <v>608.8403235104516</v>
       </c>
       <c r="R43" t="n">
-        <v>612.474158325149</v>
+        <v>513.1546219023451</v>
       </c>
       <c r="S43" t="n">
-        <v>505.5433815663066</v>
+        <v>370.2737620520134</v>
       </c>
       <c r="T43" t="n">
-        <v>505.5433815663066</v>
+        <v>370.2737620520134</v>
       </c>
       <c r="U43" t="n">
-        <v>350.8781900700569</v>
+        <v>370.2737620520134</v>
       </c>
       <c r="V43" t="n">
-        <v>350.8781900700569</v>
+        <v>370.2737620520134</v>
       </c>
       <c r="W43" t="n">
-        <v>350.8781900700569</v>
+        <v>370.2737620520134</v>
       </c>
       <c r="X43" t="n">
-        <v>350.8781900700569</v>
+        <v>225.6827432602021</v>
       </c>
       <c r="Y43" t="n">
-        <v>350.8781900700569</v>
+        <v>225.6827432602021</v>
       </c>
     </row>
     <row r="44">
@@ -9413,7 +9413,7 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>335.5274089820139</v>
+        <v>335.527408982014</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>291.6729193611615</v>
@@ -9489,16 +9489,16 @@
         <v>295.2525735033056</v>
       </c>
       <c r="N21" t="n">
-        <v>234.6728718980106</v>
+        <v>278.2736440047706</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>295.7147840257317</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9638,22 +9638,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>388.8849545512745</v>
+        <v>341.1956125303145</v>
       </c>
       <c r="M23" t="n">
         <v>383.46477280856</v>
       </c>
       <c r="N23" t="n">
-        <v>378.7615652582568</v>
+        <v>382.5316031778782</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P23" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>214.6778572459687</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>295.2525735033056</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>234.6728718980107</v>
       </c>
       <c r="O24" t="n">
         <v>295.7147840257317</v>
@@ -9875,19 +9875,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>294.54920421544</v>
+        <v>388.8849545512745</v>
       </c>
       <c r="M26" t="n">
-        <v>383.46477280856</v>
+        <v>335.7754307876</v>
       </c>
       <c r="N26" t="n">
         <v>382.5316031778782</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9954,16 +9954,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>214.6778572459687</v>
       </c>
       <c r="L27" t="n">
         <v>291.6729193611615</v>
       </c>
       <c r="M27" t="n">
-        <v>218.970452193628</v>
+        <v>295.2525735033056</v>
       </c>
       <c r="N27" t="n">
-        <v>284.4602516646206</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>295.7147840257317</v>
@@ -10112,10 +10112,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>278.8726402904333</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>235.7664149699872</v>
+        <v>388.8849545512745</v>
       </c>
       <c r="M29" t="n">
         <v>383.46477280856</v>
@@ -10124,10 +10124,10 @@
         <v>382.5316031778782</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>272.9745818169399</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10191,22 +10191,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>291.6729193611615</v>
       </c>
       <c r="M30" t="n">
-        <v>289.0659658434556</v>
+        <v>295.2525735033056</v>
       </c>
       <c r="N30" t="n">
         <v>284.4602516646206</v>
       </c>
       <c r="O30" t="n">
-        <v>295.7147840257317</v>
+        <v>162.9043783276622</v>
       </c>
       <c r="P30" t="n">
-        <v>287.0929469956175</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10349,10 +10349,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>278.8726402904333</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>235.7664149699872</v>
+        <v>388.8849545512745</v>
       </c>
       <c r="M32" t="n">
         <v>383.46477280856</v>
@@ -10361,10 +10361,10 @@
         <v>382.5316031778782</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>272.9745818169399</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>214.6778572459687</v>
       </c>
       <c r="L33" t="n">
-        <v>291.6729193611615</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>295.2525735033056</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>284.4602516646206</v>
       </c>
       <c r="O33" t="n">
-        <v>289.5281763658817</v>
+        <v>295.7147840257317</v>
       </c>
       <c r="P33" t="n">
         <v>287.0929469956175</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,16 +10586,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L35" t="n">
-        <v>388.8849545512745</v>
+        <v>294.5492042154401</v>
       </c>
       <c r="M35" t="n">
-        <v>230.3462332272727</v>
+        <v>383.46477280856</v>
       </c>
       <c r="N35" t="n">
-        <v>337.2588308971468</v>
+        <v>382.5316031778782</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10668,13 +10668,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>291.6729193611615</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>289.0659658434556</v>
       </c>
       <c r="N36" t="n">
-        <v>208.1781303549429</v>
+        <v>284.4602516646206</v>
       </c>
       <c r="O36" t="n">
         <v>295.7147840257317</v>
@@ -10683,7 +10683,7 @@
         <v>287.0929469956175</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,10 +10823,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>278.8726402904333</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L38" t="n">
-        <v>235.7664149699872</v>
+        <v>294.5492042154401</v>
       </c>
       <c r="M38" t="n">
         <v>383.46477280856</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>214.6778572459687</v>
       </c>
       <c r="L39" t="n">
-        <v>285.4863117013114</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>295.2525735033056</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>284.4602516646206</v>
@@ -10917,10 +10917,10 @@
         <v>295.7147840257317</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>287.0929469956175</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
         <v>388.8849545512745</v>
@@ -11069,10 +11069,10 @@
         <v>383.46477280856</v>
       </c>
       <c r="N41" t="n">
-        <v>382.5316031778782</v>
+        <v>378.7615652582569</v>
       </c>
       <c r="O41" t="n">
-        <v>272.9745818169397</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>231.2329957552695</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>158.8625136630919</v>
       </c>
       <c r="M42" t="n">
-        <v>218.970452193628</v>
+        <v>295.2525735033056</v>
       </c>
       <c r="N42" t="n">
         <v>284.4602516646206</v>
@@ -11154,10 +11154,10 @@
         <v>295.7147840257317</v>
       </c>
       <c r="P42" t="n">
-        <v>287.0929469956175</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23495,22 +23495,22 @@
         <v>307.7718830312911</v>
       </c>
       <c r="C14" t="n">
-        <v>290.3109331388181</v>
+        <v>290.310933138818</v>
       </c>
       <c r="D14" t="n">
-        <v>279.7210829884935</v>
+        <v>279.7210829884934</v>
       </c>
       <c r="E14" t="n">
         <v>306.9684114400723</v>
       </c>
       <c r="F14" t="n">
-        <v>331.914087109522</v>
+        <v>331.9140871095219</v>
       </c>
       <c r="G14" t="n">
-        <v>340.3407788829456</v>
+        <v>340.3407788829455</v>
       </c>
       <c r="H14" t="n">
-        <v>264.5128434835777</v>
+        <v>264.5128434835776</v>
       </c>
       <c r="I14" t="n">
         <v>135.5139309382164</v>
@@ -23540,13 +23540,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>74.9071593089602</v>
+        <v>74.90715930896015</v>
       </c>
       <c r="S14" t="n">
         <v>134.0581109540558</v>
       </c>
       <c r="T14" t="n">
-        <v>148.1338909319419</v>
+        <v>148.1338909319418</v>
       </c>
       <c r="U14" t="n">
         <v>176.383694275647</v>
@@ -23558,7 +23558,7 @@
         <v>274.2790100852235</v>
       </c>
       <c r="X14" t="n">
-        <v>294.7691420462796</v>
+        <v>294.7691420462795</v>
       </c>
       <c r="Y14" t="n">
         <v>311.2759800238641</v>
@@ -23571,28 +23571,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>91.57122501767786</v>
+        <v>91.5712250176778</v>
       </c>
       <c r="C15" t="n">
-        <v>97.74654035612626</v>
+        <v>97.7465403561262</v>
       </c>
       <c r="D15" t="n">
-        <v>72.48310693244927</v>
+        <v>72.48310693244922</v>
       </c>
       <c r="E15" t="n">
-        <v>82.68312182321147</v>
+        <v>82.68312182321141</v>
       </c>
       <c r="F15" t="n">
-        <v>70.1072537611944</v>
+        <v>70.10725376119434</v>
       </c>
       <c r="G15" t="n">
-        <v>62.38155853102116</v>
+        <v>62.3815585310211</v>
       </c>
       <c r="H15" t="n">
-        <v>37.27348560430698</v>
+        <v>37.27348560430693</v>
       </c>
       <c r="I15" t="n">
-        <v>14.4346742192256</v>
+        <v>14.43467421922554</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,10 +23619,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.19587552045365</v>
+        <v>25.1958755204536</v>
       </c>
       <c r="S15" t="n">
-        <v>96.72121247164834</v>
+        <v>96.72121247164829</v>
       </c>
       <c r="T15" t="n">
         <v>125.2027700626321</v>
@@ -23631,16 +23631,16 @@
         <v>150.9794234487853</v>
       </c>
       <c r="V15" t="n">
-        <v>157.8386285172358</v>
+        <v>157.8386285172357</v>
       </c>
       <c r="W15" t="n">
         <v>176.7330245287301</v>
       </c>
       <c r="X15" t="n">
-        <v>130.811026571288</v>
+        <v>130.8110265712879</v>
       </c>
       <c r="Y15" t="n">
-        <v>130.7207371451149</v>
+        <v>130.7207371451148</v>
       </c>
     </row>
     <row r="16">
@@ -23653,28 +23653,28 @@
         <v>104.8700215497478</v>
       </c>
       <c r="C16" t="n">
-        <v>92.28486246643835</v>
+        <v>92.2848624664383</v>
       </c>
       <c r="D16" t="n">
-        <v>73.65351438602288</v>
+        <v>73.65351438602282</v>
       </c>
       <c r="E16" t="n">
-        <v>71.47200401437969</v>
+        <v>71.47200401437964</v>
       </c>
       <c r="F16" t="n">
-        <v>70.45908939074177</v>
+        <v>70.45908939074171</v>
       </c>
       <c r="G16" t="n">
-        <v>93.02902072626928</v>
+        <v>93.02902072626922</v>
       </c>
       <c r="H16" t="n">
-        <v>87.2652138752501</v>
+        <v>87.26521387525004</v>
       </c>
       <c r="I16" t="n">
-        <v>80.48851629506881</v>
+        <v>80.48851629506875</v>
       </c>
       <c r="J16" t="n">
-        <v>18.3972214844833</v>
+        <v>18.39722148448324</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,13 +23695,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>11.20008461950491</v>
+        <v>11.20008461950485</v>
       </c>
       <c r="R16" t="n">
-        <v>102.33143274498</v>
+        <v>102.3314327449799</v>
       </c>
       <c r="S16" t="n">
-        <v>149.0546394047828</v>
+        <v>149.0546394047827</v>
       </c>
       <c r="T16" t="n">
         <v>152.983630796092</v>
@@ -23716,7 +23716,7 @@
         <v>211.5610397044015</v>
       </c>
       <c r="X16" t="n">
-        <v>150.7476967568477</v>
+        <v>150.7476967568476</v>
       </c>
       <c r="Y16" t="n">
         <v>143.6226947199053</v>
@@ -23732,22 +23732,22 @@
         <v>307.7718830312911</v>
       </c>
       <c r="C17" t="n">
-        <v>290.3109331388181</v>
+        <v>290.310933138818</v>
       </c>
       <c r="D17" t="n">
-        <v>279.7210829884935</v>
+        <v>279.7210829884934</v>
       </c>
       <c r="E17" t="n">
         <v>306.9684114400723</v>
       </c>
       <c r="F17" t="n">
-        <v>331.914087109522</v>
+        <v>331.9140871095219</v>
       </c>
       <c r="G17" t="n">
-        <v>340.3407788829456</v>
+        <v>340.3407788829455</v>
       </c>
       <c r="H17" t="n">
-        <v>264.5128434835777</v>
+        <v>264.5128434835776</v>
       </c>
       <c r="I17" t="n">
         <v>135.5139309382164</v>
@@ -23777,13 +23777,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>74.9071593089602</v>
+        <v>74.90715930896015</v>
       </c>
       <c r="S17" t="n">
         <v>134.0581109540558</v>
       </c>
       <c r="T17" t="n">
-        <v>148.1338909319419</v>
+        <v>148.1338909319418</v>
       </c>
       <c r="U17" t="n">
         <v>176.383694275647</v>
@@ -23795,7 +23795,7 @@
         <v>274.2790100852235</v>
       </c>
       <c r="X17" t="n">
-        <v>294.7691420462796</v>
+        <v>294.7691420462795</v>
       </c>
       <c r="Y17" t="n">
         <v>311.2759800238641</v>
@@ -23808,28 +23808,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>91.57122501767786</v>
+        <v>91.5712250176778</v>
       </c>
       <c r="C18" t="n">
-        <v>97.74654035612626</v>
+        <v>97.7465403561262</v>
       </c>
       <c r="D18" t="n">
-        <v>72.48310693244927</v>
+        <v>72.48310693244922</v>
       </c>
       <c r="E18" t="n">
-        <v>82.68312182321147</v>
+        <v>82.68312182321141</v>
       </c>
       <c r="F18" t="n">
-        <v>70.1072537611944</v>
+        <v>70.10725376119434</v>
       </c>
       <c r="G18" t="n">
-        <v>62.38155853102116</v>
+        <v>62.3815585310211</v>
       </c>
       <c r="H18" t="n">
-        <v>37.27348560430698</v>
+        <v>37.27348560430693</v>
       </c>
       <c r="I18" t="n">
-        <v>14.4346742192256</v>
+        <v>14.43467421922554</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,10 +23856,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.19587552045365</v>
+        <v>25.1958755204536</v>
       </c>
       <c r="S18" t="n">
-        <v>96.72121247164834</v>
+        <v>96.72121247164829</v>
       </c>
       <c r="T18" t="n">
         <v>125.2027700626321</v>
@@ -23868,16 +23868,16 @@
         <v>150.9794234487853</v>
       </c>
       <c r="V18" t="n">
-        <v>157.8386285172358</v>
+        <v>157.8386285172357</v>
       </c>
       <c r="W18" t="n">
         <v>176.7330245287301</v>
       </c>
       <c r="X18" t="n">
-        <v>130.811026571288</v>
+        <v>130.8110265712879</v>
       </c>
       <c r="Y18" t="n">
-        <v>130.7207371451149</v>
+        <v>130.7207371451148</v>
       </c>
     </row>
     <row r="19">
@@ -23890,28 +23890,28 @@
         <v>104.8700215497478</v>
       </c>
       <c r="C19" t="n">
-        <v>92.28486246643835</v>
+        <v>92.2848624664383</v>
       </c>
       <c r="D19" t="n">
-        <v>73.65351438602288</v>
+        <v>73.65351438602282</v>
       </c>
       <c r="E19" t="n">
-        <v>71.47200401437969</v>
+        <v>71.47200401437964</v>
       </c>
       <c r="F19" t="n">
-        <v>70.45908939074177</v>
+        <v>70.45908939074171</v>
       </c>
       <c r="G19" t="n">
-        <v>93.02902072626928</v>
+        <v>93.02902072626922</v>
       </c>
       <c r="H19" t="n">
-        <v>87.2652138752501</v>
+        <v>87.26521387525004</v>
       </c>
       <c r="I19" t="n">
-        <v>80.48851629506881</v>
+        <v>80.48851629506875</v>
       </c>
       <c r="J19" t="n">
-        <v>18.3972214844833</v>
+        <v>18.39722148448324</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,13 +23932,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.20008461950491</v>
+        <v>11.20008461950485</v>
       </c>
       <c r="R19" t="n">
-        <v>102.33143274498</v>
+        <v>102.3314327449799</v>
       </c>
       <c r="S19" t="n">
-        <v>149.0546394047828</v>
+        <v>149.0546394047827</v>
       </c>
       <c r="T19" t="n">
         <v>152.983630796092</v>
@@ -23953,7 +23953,7 @@
         <v>211.5610397044015</v>
       </c>
       <c r="X19" t="n">
-        <v>150.7476967568477</v>
+        <v>150.7476967568476</v>
       </c>
       <c r="Y19" t="n">
         <v>143.6226947199053</v>
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>300.1692948783367</v>
+        <v>300.1692948783366</v>
       </c>
       <c r="C20" t="n">
         <v>282.7083449858636</v>
       </c>
       <c r="D20" t="n">
-        <v>272.1184948355391</v>
+        <v>272.118494835539</v>
       </c>
       <c r="E20" t="n">
-        <v>146.2472837058307</v>
+        <v>299.3658232871178</v>
       </c>
       <c r="F20" t="n">
-        <v>171.1929593752803</v>
+        <v>324.3114989565675</v>
       </c>
       <c r="G20" t="n">
-        <v>332.7381907299912</v>
+        <v>332.7381907299911</v>
       </c>
       <c r="H20" t="n">
-        <v>256.9102553306233</v>
+        <v>256.9102553306232</v>
       </c>
       <c r="I20" t="n">
-        <v>127.911342785262</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,22 +24017,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.89328429390942</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>140.5313027789875</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>168.7811061226926</v>
       </c>
       <c r="V20" t="n">
-        <v>245.187711684991</v>
+        <v>113.1680227992879</v>
       </c>
       <c r="W20" t="n">
-        <v>113.5578823509819</v>
+        <v>266.6764219322691</v>
       </c>
       <c r="X20" t="n">
-        <v>287.1665538933252</v>
+        <v>287.1665538933251</v>
       </c>
       <c r="Y20" t="n">
         <v>303.6733918709097</v>
@@ -24045,28 +24045,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>83.96863686472344</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>90.14395220317184</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>64.88051877949485</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>75.08053367025704</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>62.50466560823997</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>54.77897037806673</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>29.67089745135256</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>6.832086066271174</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,25 +24093,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>17.5932873674992</v>
       </c>
       <c r="S21" t="n">
-        <v>89.11862431869392</v>
+        <v>89.11862431869389</v>
       </c>
       <c r="T21" t="n">
         <v>117.6001819096777</v>
       </c>
       <c r="U21" t="n">
-        <v>116.4288616123333</v>
+        <v>143.3768352958309</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>150.2360403642813</v>
       </c>
       <c r="W21" t="n">
-        <v>16.01189679448845</v>
+        <v>169.1304363757757</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>119.9644200250117</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24124,31 +24124,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.26743339679339</v>
+        <v>97.26743339679336</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>84.6822743134839</v>
       </c>
       <c r="D22" t="n">
-        <v>66.05092623306845</v>
+        <v>66.05092623306842</v>
       </c>
       <c r="E22" t="n">
-        <v>63.86941586142527</v>
+        <v>63.86941586142524</v>
       </c>
       <c r="F22" t="n">
-        <v>62.85650123778734</v>
+        <v>62.85650123778731</v>
       </c>
       <c r="G22" t="n">
-        <v>85.42643257331486</v>
+        <v>85.42643257331483</v>
       </c>
       <c r="H22" t="n">
-        <v>79.66262572229567</v>
+        <v>79.66262572229564</v>
       </c>
       <c r="I22" t="n">
-        <v>72.88592814211438</v>
+        <v>72.88592814211435</v>
       </c>
       <c r="J22" t="n">
-        <v>10.79463333152887</v>
+        <v>10.79463333152884</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,31 +24169,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.597496466550481</v>
+        <v>3.597496466550453</v>
       </c>
       <c r="R22" t="n">
-        <v>94.72884459202558</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>64.19565191038411</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>145.3810426431376</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>203.754482571347</v>
+        <v>50.63594299005968</v>
       </c>
       <c r="V22" t="n">
-        <v>16.45455695739685</v>
+        <v>169.5730965386841</v>
       </c>
       <c r="W22" t="n">
         <v>203.9584515514471</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.1451086038932</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>76.47815622816999</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>300.1692948783367</v>
+        <v>300.1692948783366</v>
       </c>
       <c r="C23" t="n">
         <v>282.7083449858636</v>
       </c>
       <c r="D23" t="n">
-        <v>272.1184948355391</v>
+        <v>272.118494835539</v>
       </c>
       <c r="E23" t="n">
-        <v>299.3658232871179</v>
+        <v>146.2472837058306</v>
       </c>
       <c r="F23" t="n">
-        <v>324.3114989565676</v>
+        <v>171.1929593752802</v>
       </c>
       <c r="G23" t="n">
-        <v>332.7381907299912</v>
+        <v>325.7827238520553</v>
       </c>
       <c r="H23" t="n">
-        <v>256.9102553306233</v>
+        <v>103.7917157493359</v>
       </c>
       <c r="I23" t="n">
-        <v>21.0988506955844</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,13 +24251,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>67.30457115600575</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>126.4555228011014</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>140.5313027789874</v>
       </c>
       <c r="U23" t="n">
         <v>168.7811061226926</v>
@@ -24266,10 +24266,10 @@
         <v>245.187711684991</v>
       </c>
       <c r="W23" t="n">
-        <v>113.5578823509819</v>
+        <v>266.6764219322691</v>
       </c>
       <c r="X23" t="n">
-        <v>287.1665538933252</v>
+        <v>287.1665538933251</v>
       </c>
       <c r="Y23" t="n">
         <v>303.6733918709097</v>
@@ -24282,22 +24282,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>83.96863686472341</v>
       </c>
       <c r="C24" t="n">
-        <v>90.14395220317184</v>
+        <v>90.14395220317181</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>64.88051877949482</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>75.08053367025701</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>62.50466560823995</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>54.7789703780667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>17.5932873674992</v>
       </c>
       <c r="S24" t="n">
-        <v>89.11862431869392</v>
+        <v>89.11862431869389</v>
       </c>
       <c r="T24" t="n">
         <v>117.6001819096777</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>135.3385577624575</v>
       </c>
       <c r="V24" t="n">
-        <v>150.2360403642814</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>169.1304363757757</v>
+        <v>16.01189679448839</v>
       </c>
       <c r="X24" t="n">
-        <v>67.67244149300996</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>123.1181489921605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24361,31 +24361,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.26743339679339</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>36.04227193846199</v>
+        <v>84.6822743134839</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>63.86941586142524</v>
       </c>
       <c r="F25" t="n">
-        <v>62.85650123778734</v>
+        <v>62.85650123778731</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>85.42643257331483</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>72.88592814211438</v>
+        <v>21.50562973894318</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>10.79463333152884</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>94.72884459202555</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>141.4520512518283</v>
       </c>
       <c r="T25" t="n">
         <v>145.3810426431376</v>
@@ -24424,10 +24424,10 @@
         <v>169.5730965386841</v>
       </c>
       <c r="W25" t="n">
-        <v>203.9584515514471</v>
+        <v>50.83991197015979</v>
       </c>
       <c r="X25" t="n">
-        <v>143.1451086038932</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>136.0201065669509</v>
@@ -24440,28 +24440,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>300.1692948783367</v>
+        <v>300.1692948783366</v>
       </c>
       <c r="C26" t="n">
-        <v>147.8415353226658</v>
+        <v>282.7083449858636</v>
       </c>
       <c r="D26" t="n">
-        <v>118.9999552542518</v>
+        <v>272.118494835539</v>
       </c>
       <c r="E26" t="n">
-        <v>146.2472837058307</v>
+        <v>299.3658232871178</v>
       </c>
       <c r="F26" t="n">
-        <v>324.3114989565676</v>
+        <v>317.3560320786317</v>
       </c>
       <c r="G26" t="n">
-        <v>332.7381907299912</v>
+        <v>179.6196511487038</v>
       </c>
       <c r="H26" t="n">
-        <v>256.9102553306233</v>
+        <v>103.7917157493359</v>
       </c>
       <c r="I26" t="n">
-        <v>127.911342785262</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,13 +24488,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>67.30457115600578</v>
+        <v>67.30457115600575</v>
       </c>
       <c r="S26" t="n">
         <v>126.4555228011014</v>
       </c>
       <c r="T26" t="n">
-        <v>140.5313027789875</v>
+        <v>140.5313027789874</v>
       </c>
       <c r="U26" t="n">
         <v>168.7811061226926</v>
@@ -24506,10 +24506,10 @@
         <v>266.6764219322691</v>
       </c>
       <c r="X26" t="n">
-        <v>287.1665538933252</v>
+        <v>134.0480143120378</v>
       </c>
       <c r="Y26" t="n">
-        <v>150.5548522896224</v>
+        <v>303.6733918709097</v>
       </c>
     </row>
     <row r="27">
@@ -24519,28 +24519,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>83.96863686472344</v>
+        <v>83.96863686472341</v>
       </c>
       <c r="C27" t="n">
-        <v>35.86098686671856</v>
+        <v>90.14395220317181</v>
       </c>
       <c r="D27" t="n">
-        <v>64.88051877949485</v>
+        <v>64.88051877949482</v>
       </c>
       <c r="E27" t="n">
-        <v>75.08053367025704</v>
+        <v>75.08053367025701</v>
       </c>
       <c r="F27" t="n">
-        <v>62.50466560823997</v>
+        <v>62.50466560823995</v>
       </c>
       <c r="G27" t="n">
-        <v>54.77897037806673</v>
+        <v>54.7789703780667</v>
       </c>
       <c r="H27" t="n">
-        <v>29.67089745135256</v>
+        <v>29.67089745135253</v>
       </c>
       <c r="I27" t="n">
-        <v>6.832086066271174</v>
+        <v>6.832086066271145</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,13 +24567,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>17.59328736749923</v>
+        <v>17.5932873674992</v>
       </c>
       <c r="S27" t="n">
-        <v>89.11862431869392</v>
+        <v>89.11862431869389</v>
       </c>
       <c r="T27" t="n">
-        <v>117.6001819096777</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24585,7 +24585,7 @@
         <v>169.1304363757757</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>63.31721657322422</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24598,31 +24598,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.26743339679339</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>84.68227431348393</v>
+        <v>84.6822743134839</v>
       </c>
       <c r="D28" t="n">
-        <v>66.05092623306845</v>
+        <v>66.05092623306842</v>
       </c>
       <c r="E28" t="n">
-        <v>63.86941586142527</v>
+        <v>63.86941586142524</v>
       </c>
       <c r="F28" t="n">
-        <v>62.85650123778734</v>
+        <v>62.85650123778731</v>
       </c>
       <c r="G28" t="n">
-        <v>85.42643257331486</v>
+        <v>85.42643257331483</v>
       </c>
       <c r="H28" t="n">
-        <v>79.66262572229567</v>
+        <v>79.66262572229564</v>
       </c>
       <c r="I28" t="n">
-        <v>33.56916542507705</v>
+        <v>72.88592814211435</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>10.79463333152884</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,31 +24643,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.597496466550481</v>
+        <v>3.597496466550453</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>94.72884459202555</v>
       </c>
       <c r="S28" t="n">
-        <v>141.4520512518284</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>145.3810426431376</v>
       </c>
       <c r="U28" t="n">
-        <v>50.63594299005973</v>
+        <v>203.754482571347</v>
       </c>
       <c r="V28" t="n">
-        <v>16.45455695739685</v>
+        <v>169.5730965386841</v>
       </c>
       <c r="W28" t="n">
-        <v>203.9584515514471</v>
+        <v>127.6207229638532</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>136.0201065669509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24686,16 +24686,16 @@
         <v>254.5252074680398</v>
       </c>
       <c r="E29" t="n">
-        <v>128.6539963383314</v>
+        <v>281.7725359196186</v>
       </c>
       <c r="F29" t="n">
-        <v>153.599672007781</v>
+        <v>306.7182115890683</v>
       </c>
       <c r="G29" t="n">
-        <v>162.0263637812047</v>
+        <v>180.2780936992941</v>
       </c>
       <c r="H29" t="n">
-        <v>213.3123937335284</v>
+        <v>239.316967963124</v>
       </c>
       <c r="I29" t="n">
         <v>110.3180554177628</v>
@@ -24728,7 +24728,7 @@
         <v>49.71128378850655</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>108.8622354336022</v>
       </c>
       <c r="T29" t="n">
         <v>122.9380154114882</v>
@@ -24740,13 +24740,13 @@
         <v>227.5944243174918</v>
       </c>
       <c r="W29" t="n">
-        <v>249.0831345647699</v>
+        <v>95.96459498348258</v>
       </c>
       <c r="X29" t="n">
-        <v>269.5732665258259</v>
+        <v>116.4547269445386</v>
       </c>
       <c r="Y29" t="n">
-        <v>286.0801045034104</v>
+        <v>132.9615649221232</v>
       </c>
     </row>
     <row r="30">
@@ -24759,10 +24759,10 @@
         <v>66.37534949722421</v>
       </c>
       <c r="C30" t="n">
-        <v>72.55066483567261</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>47.28723141199562</v>
+        <v>41.19406882483322</v>
       </c>
       <c r="E30" t="n">
         <v>57.48724630275781</v>
@@ -24810,10 +24810,10 @@
         <v>71.52533695119469</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>100.0068945421785</v>
       </c>
       <c r="U30" t="n">
-        <v>125.7835479283317</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24825,7 +24825,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.104380815673125</v>
+        <v>105.5248616246612</v>
       </c>
     </row>
     <row r="31">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>79.67414602929416</v>
       </c>
       <c r="C31" t="n">
         <v>67.0889869459847</v>
@@ -24883,22 +24883,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>77.13555722452635</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>43.33531594477654</v>
+        <v>123.8587638843291</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>33.04265562256049</v>
+        <v>33.04265562256046</v>
       </c>
       <c r="V31" t="n">
-        <v>151.9798091711849</v>
+        <v>68.91777242686442</v>
       </c>
       <c r="W31" t="n">
-        <v>33.2466246026606</v>
+        <v>33.24662460266057</v>
       </c>
       <c r="X31" t="n">
         <v>125.551821236394</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>282.5760075108374</v>
+        <v>147.7091978476396</v>
       </c>
       <c r="C32" t="n">
         <v>265.1150576183644</v>
@@ -24926,10 +24926,10 @@
         <v>281.7725359196186</v>
       </c>
       <c r="F32" t="n">
-        <v>153.599672007781</v>
+        <v>306.7182115890683</v>
       </c>
       <c r="G32" t="n">
-        <v>162.0263637812047</v>
+        <v>315.1449033624919</v>
       </c>
       <c r="H32" t="n">
         <v>239.316967963124</v>
@@ -24962,28 +24962,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>49.71128378850655</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>108.8622354336022</v>
       </c>
       <c r="T32" t="n">
         <v>122.9380154114882</v>
       </c>
       <c r="U32" t="n">
-        <v>21.77598873281701</v>
+        <v>151.1878187551933</v>
       </c>
       <c r="V32" t="n">
-        <v>227.5944243174918</v>
+        <v>74.47588473620448</v>
       </c>
       <c r="W32" t="n">
-        <v>249.0831345647699</v>
+        <v>95.96459498348258</v>
       </c>
       <c r="X32" t="n">
         <v>269.5732665258259</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.0801045034104</v>
+        <v>132.9615649221232</v>
       </c>
     </row>
     <row r="33">
@@ -25002,10 +25002,10 @@
         <v>47.28723141199562</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>57.48724630275781</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>44.91137824074075</v>
       </c>
       <c r="G33" t="n">
         <v>37.1856830105675</v>
@@ -25047,7 +25047,7 @@
         <v>71.52533695119469</v>
       </c>
       <c r="T33" t="n">
-        <v>100.0068945421785</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25056,13 +25056,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>129.2796587453249</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>21.3630671193435</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>105.5248616246612</v>
       </c>
     </row>
     <row r="34">
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>79.67414602929416</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>67.0889869459847</v>
       </c>
       <c r="D34" t="n">
         <v>48.45763886556922</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>46.27612849392604</v>
       </c>
       <c r="F34" t="n">
         <v>45.26321387028811</v>
@@ -25090,10 +25090,10 @@
         <v>67.83314520581563</v>
       </c>
       <c r="H34" t="n">
-        <v>13.86030169698211</v>
+        <v>62.06933835479644</v>
       </c>
       <c r="I34" t="n">
-        <v>55.29264077461515</v>
+        <v>15.5791462407508</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>77.13555722452635</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>127.7877552756384</v>
       </c>
       <c r="U34" t="n">
-        <v>186.1611952038477</v>
+        <v>33.04265562256046</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>186.3651641839479</v>
       </c>
       <c r="X34" t="n">
-        <v>125.551821236394</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>118.4268191994517</v>
@@ -25151,22 +25151,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>137.0600560825046</v>
+        <v>155.3117860005941</v>
       </c>
       <c r="C35" t="n">
-        <v>272.7176457713189</v>
+        <v>119.5991061900315</v>
       </c>
       <c r="D35" t="n">
-        <v>262.1277956209942</v>
+        <v>109.0092560397069</v>
       </c>
       <c r="E35" t="n">
         <v>289.375124072573</v>
       </c>
       <c r="F35" t="n">
-        <v>161.2022601607354</v>
+        <v>314.3207997420227</v>
       </c>
       <c r="G35" t="n">
-        <v>169.6289519341591</v>
+        <v>322.7474915154463</v>
       </c>
       <c r="H35" t="n">
         <v>246.9195561160784</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>57.31387194146097</v>
+        <v>57.31387194146095</v>
       </c>
       <c r="S35" t="n">
         <v>116.4648235865566</v>
@@ -25211,16 +25211,16 @@
         <v>158.7904069081478</v>
       </c>
       <c r="V35" t="n">
-        <v>235.1970124704462</v>
+        <v>82.07847288915889</v>
       </c>
       <c r="W35" t="n">
-        <v>121.8189130545264</v>
+        <v>256.6857227177243</v>
       </c>
       <c r="X35" t="n">
         <v>277.1758546787803</v>
       </c>
       <c r="Y35" t="n">
-        <v>293.6826926563649</v>
+        <v>293.6826926563648</v>
       </c>
     </row>
     <row r="36">
@@ -25230,25 +25230,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>73.97793765017863</v>
+        <v>73.9779376501786</v>
       </c>
       <c r="C36" t="n">
-        <v>80.15325298862703</v>
+        <v>80.153252988627</v>
       </c>
       <c r="D36" t="n">
-        <v>54.88981956495005</v>
+        <v>54.88981956495002</v>
       </c>
       <c r="E36" t="n">
-        <v>65.08983445571224</v>
+        <v>65.08983445571221</v>
       </c>
       <c r="F36" t="n">
-        <v>52.51396639369517</v>
+        <v>52.51396639369514</v>
       </c>
       <c r="G36" t="n">
-        <v>44.78827116352193</v>
+        <v>44.7882711635219</v>
       </c>
       <c r="H36" t="n">
-        <v>19.68019823680775</v>
+        <v>19.68019823680773</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25278,13 +25278,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.602588152954425</v>
+        <v>7.602588152954397</v>
       </c>
       <c r="S36" t="n">
-        <v>79.12792510414911</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>19.26499620453228</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25293,13 +25293,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>6.021197579943646</v>
+        <v>6.021197579943589</v>
       </c>
       <c r="X36" t="n">
-        <v>53.35481030417203</v>
+        <v>113.2177392037887</v>
       </c>
       <c r="Y36" t="n">
-        <v>113.1274497776157</v>
+        <v>113.1274497776156</v>
       </c>
     </row>
     <row r="37">
@@ -25309,31 +25309,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.27673418224859</v>
+        <v>57.88794772548995</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>74.6915750989391</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>56.06022701852362</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>53.87871664688043</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>52.86580202324251</v>
       </c>
       <c r="G37" t="n">
-        <v>75.43573335877005</v>
+        <v>75.43573335877002</v>
       </c>
       <c r="H37" t="n">
-        <v>64.53565973163427</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.89522892756958</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.8039341169840668</v>
+        <v>0.8039341169840384</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.73814537748075</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>131.4613520372835</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>135.3903434285928</v>
       </c>
       <c r="U37" t="n">
-        <v>193.7637833568022</v>
+        <v>40.64524377551487</v>
       </c>
       <c r="V37" t="n">
         <v>159.5823973241393</v>
       </c>
       <c r="W37" t="n">
-        <v>193.9677523369023</v>
+        <v>40.84921275561499</v>
       </c>
       <c r="X37" t="n">
         <v>133.1544093893484</v>
       </c>
       <c r="Y37" t="n">
-        <v>126.0294073524061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,25 +25388,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>137.0600560825046</v>
+        <v>290.1785956637918</v>
       </c>
       <c r="C38" t="n">
-        <v>272.7176457713189</v>
+        <v>272.7176457713188</v>
       </c>
       <c r="D38" t="n">
-        <v>262.1277956209942</v>
+        <v>109.0092560397069</v>
       </c>
       <c r="E38" t="n">
         <v>289.375124072573</v>
       </c>
       <c r="F38" t="n">
-        <v>314.3207997420227</v>
+        <v>161.2022601607354</v>
       </c>
       <c r="G38" t="n">
         <v>322.7474915154463</v>
       </c>
       <c r="H38" t="n">
-        <v>246.9195561160784</v>
+        <v>93.80101653479113</v>
       </c>
       <c r="I38" t="n">
         <v>117.9206435707172</v>
@@ -25436,13 +25436,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>57.31387194146097</v>
+        <v>52.98766584270577</v>
       </c>
       <c r="S38" t="n">
         <v>116.4648235865566</v>
       </c>
       <c r="T38" t="n">
-        <v>130.5406035644426</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>158.7904069081478</v>
@@ -25451,13 +25451,13 @@
         <v>235.1970124704462</v>
       </c>
       <c r="W38" t="n">
-        <v>103.567183136437</v>
+        <v>256.6857227177243</v>
       </c>
       <c r="X38" t="n">
-        <v>142.3090450155825</v>
+        <v>277.1758546787803</v>
       </c>
       <c r="Y38" t="n">
-        <v>140.5641530750777</v>
+        <v>293.6826926563648</v>
       </c>
     </row>
     <row r="39">
@@ -25467,25 +25467,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>73.9779376501786</v>
       </c>
       <c r="C39" t="n">
-        <v>24.14252348695777</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>54.88981956495005</v>
+        <v>44.76972876906916</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>52.51396639369517</v>
+        <v>52.51396639369514</v>
       </c>
       <c r="G39" t="n">
-        <v>44.78827116352193</v>
+        <v>44.7882711635219</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>19.68019823680773</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25515,22 +25515,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.602588152954425</v>
+        <v>7.602588152954397</v>
       </c>
       <c r="S39" t="n">
-        <v>79.12792510414911</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>107.6094826951329</v>
       </c>
       <c r="U39" t="n">
-        <v>133.3861360812861</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>140.2453411497366</v>
+        <v>140.2453411497365</v>
       </c>
       <c r="W39" t="n">
-        <v>6.021197579943646</v>
+        <v>159.1397371612309</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25546,31 +25546,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.27673418224859</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>74.69157509893913</v>
+        <v>50.61134484886107</v>
       </c>
       <c r="D40" t="n">
-        <v>56.06022701852365</v>
+        <v>56.06022701852362</v>
       </c>
       <c r="E40" t="n">
-        <v>53.87871664688046</v>
+        <v>53.87871664688043</v>
       </c>
       <c r="F40" t="n">
-        <v>52.86580202324254</v>
+        <v>52.86580202324251</v>
       </c>
       <c r="G40" t="n">
-        <v>75.43573335877005</v>
+        <v>75.43573335877002</v>
       </c>
       <c r="H40" t="n">
-        <v>69.67192650775087</v>
+        <v>69.67192650775084</v>
       </c>
       <c r="I40" t="n">
-        <v>62.89522892756958</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.8039341169840668</v>
+        <v>0.8039341169840384</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.73814537748078</v>
+        <v>84.73814537748075</v>
       </c>
       <c r="S40" t="n">
-        <v>112.0207556107397</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,13 +25606,13 @@
         <v>193.7637833568022</v>
       </c>
       <c r="V40" t="n">
-        <v>6.463857742852042</v>
+        <v>159.5823973241393</v>
       </c>
       <c r="W40" t="n">
-        <v>40.84921275561504</v>
+        <v>40.84921275561499</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>133.1544093893484</v>
       </c>
       <c r="Y40" t="n">
         <v>126.0294073524061</v>
@@ -25625,25 +25625,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.1692948783367</v>
+        <v>300.1692948783366</v>
       </c>
       <c r="C41" t="n">
-        <v>129.5898054045764</v>
+        <v>129.5898054045763</v>
       </c>
       <c r="D41" t="n">
-        <v>137.2516851723412</v>
+        <v>272.118494835539</v>
       </c>
       <c r="E41" t="n">
-        <v>146.2472837058307</v>
+        <v>146.2472837058306</v>
       </c>
       <c r="F41" t="n">
-        <v>171.1929593752803</v>
+        <v>171.1929593752802</v>
       </c>
       <c r="G41" t="n">
-        <v>332.7381907299912</v>
+        <v>197.8713810667933</v>
       </c>
       <c r="H41" t="n">
-        <v>256.9102553306233</v>
+        <v>256.9102553306232</v>
       </c>
       <c r="I41" t="n">
         <v>127.911342785262</v>
@@ -25673,13 +25673,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>67.30457115600578</v>
+        <v>67.30457115600575</v>
       </c>
       <c r="S41" t="n">
         <v>126.4555228011014</v>
       </c>
       <c r="T41" t="n">
-        <v>140.5313027789875</v>
+        <v>140.5313027789874</v>
       </c>
       <c r="U41" t="n">
         <v>168.7811061226926</v>
@@ -25691,7 +25691,7 @@
         <v>266.6764219322691</v>
       </c>
       <c r="X41" t="n">
-        <v>287.1665538933252</v>
+        <v>287.1665538933251</v>
       </c>
       <c r="Y41" t="n">
         <v>303.6733918709097</v>
@@ -25704,28 +25704,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>83.96863686472344</v>
+        <v>83.96863686472341</v>
       </c>
       <c r="C42" t="n">
-        <v>90.14395220317184</v>
+        <v>90.14395220317181</v>
       </c>
       <c r="D42" t="n">
-        <v>64.88051877949485</v>
+        <v>64.88051877949482</v>
       </c>
       <c r="E42" t="n">
-        <v>75.08053367025704</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>62.50466560823997</v>
+        <v>62.50466560823995</v>
       </c>
       <c r="G42" t="n">
-        <v>54.77897037806673</v>
+        <v>54.7789703780667</v>
       </c>
       <c r="H42" t="n">
-        <v>29.67089745135256</v>
+        <v>29.67089745135253</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>6.832086066271145</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,28 +25752,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>17.59328736749923</v>
+        <v>17.5932873674992</v>
       </c>
       <c r="S42" t="n">
-        <v>89.11862431869392</v>
+        <v>89.11862431869389</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>117.6001819096777</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>20.79756833380358</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>16.01189679448845</v>
+        <v>169.1304363757757</v>
       </c>
       <c r="X42" t="n">
-        <v>100.1496932286224</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>123.1181489921605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25783,19 +25783,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>97.26743339679336</v>
       </c>
       <c r="C43" t="n">
-        <v>84.68227431348393</v>
+        <v>84.6822743134839</v>
       </c>
       <c r="D43" t="n">
-        <v>66.05092623306845</v>
+        <v>66.05092623306842</v>
       </c>
       <c r="E43" t="n">
-        <v>63.86941586142527</v>
+        <v>63.86941586142524</v>
       </c>
       <c r="F43" t="n">
-        <v>62.85650123778734</v>
+        <v>62.85650123778731</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,10 +25804,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>26.67605894496273</v>
       </c>
       <c r="J43" t="n">
-        <v>10.79463333152887</v>
+        <v>10.79463333152884</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,19 +25828,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.597496466550481</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>94.72884459202558</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>35.59058226057438</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>145.3810426431376</v>
       </c>
       <c r="U43" t="n">
-        <v>50.63594299005973</v>
+        <v>203.754482571347</v>
       </c>
       <c r="V43" t="n">
         <v>169.5730965386841</v>
@@ -25849,7 +25849,7 @@
         <v>203.9584515514471</v>
       </c>
       <c r="X43" t="n">
-        <v>143.1451086038932</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>136.0201065669509</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>393833.1510176776</v>
+        <v>393833.1510176779</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>393833.1510176776</v>
+        <v>393833.1510176779</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>507246.746064425</v>
+        <v>507246.7460644249</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>524894.594712452</v>
+        <v>524894.5947124519</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>524894.5947124519</v>
+        <v>524894.594712452</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>507246.7460644247</v>
+        <v>507246.746064425</v>
       </c>
     </row>
     <row r="16">
@@ -26320,37 +26320,37 @@
         <v>819276.3387170385</v>
       </c>
       <c r="E2" t="n">
-        <v>240759.9041363481</v>
+        <v>240759.9041363482</v>
       </c>
       <c r="F2" t="n">
-        <v>396101.9813858344</v>
+        <v>396101.981385835</v>
       </c>
       <c r="G2" t="n">
-        <v>396101.9813858345</v>
+        <v>396101.9813858348</v>
       </c>
       <c r="H2" t="n">
-        <v>500983.0260899082</v>
+        <v>500983.0260899083</v>
       </c>
       <c r="I2" t="n">
-        <v>500983.0260899083</v>
+        <v>500983.0260899081</v>
       </c>
       <c r="J2" t="n">
         <v>500983.026089908</v>
       </c>
       <c r="K2" t="n">
+        <v>541970.0815603683</v>
+      </c>
+      <c r="L2" t="n">
         <v>541970.0815603684</v>
       </c>
-      <c r="L2" t="n">
-        <v>541970.0815603683</v>
-      </c>
       <c r="M2" t="n">
-        <v>524513.4909539446</v>
+        <v>524513.4909539445</v>
       </c>
       <c r="N2" t="n">
         <v>524513.4909539446</v>
       </c>
       <c r="O2" t="n">
-        <v>500983.0260899083</v>
+        <v>500983.026089908</v>
       </c>
       <c r="P2" t="n">
         <v>215014.8110628928</v>
@@ -26375,13 +26375,13 @@
         <v>7992.559371635843</v>
       </c>
       <c r="F3" t="n">
-        <v>51977.00753411574</v>
+        <v>51977.00753411579</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>47394.83056825108</v>
+        <v>47394.83056825106</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>7992.559371635843</v>
       </c>
       <c r="K3" t="n">
-        <v>66051.63742811512</v>
+        <v>66051.63742811515</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>439830.3974941829</v>
+        <v>441649.2499958206</v>
       </c>
       <c r="C4" t="n">
-        <v>439830.3974941829</v>
+        <v>441649.2499958206</v>
       </c>
       <c r="D4" t="n">
-        <v>439830.3974941829</v>
+        <v>441649.2499958206</v>
       </c>
       <c r="E4" t="n">
-        <v>109632.2639604309</v>
+        <v>111451.1164620685</v>
       </c>
       <c r="F4" t="n">
-        <v>198296.4071048069</v>
+        <v>200115.2596064445</v>
       </c>
       <c r="G4" t="n">
-        <v>198296.4071048069</v>
+        <v>200115.2596064445</v>
       </c>
       <c r="H4" t="n">
-        <v>249317.294662421</v>
+        <v>251789.4379547643</v>
       </c>
       <c r="I4" t="n">
-        <v>249317.294662421</v>
+        <v>251789.4379547643</v>
       </c>
       <c r="J4" t="n">
-        <v>249317.294662421</v>
+        <v>251789.4379547643</v>
       </c>
       <c r="K4" t="n">
-        <v>272711.3564494464</v>
+        <v>275183.4997417897</v>
       </c>
       <c r="L4" t="n">
-        <v>272711.3564494464</v>
+        <v>275183.4997417896</v>
       </c>
       <c r="M4" t="n">
-        <v>262747.7092796268</v>
+        <v>265219.8525719701</v>
       </c>
       <c r="N4" t="n">
-        <v>262747.7092796268</v>
+        <v>265219.8525719701</v>
       </c>
       <c r="O4" t="n">
-        <v>249317.294662421</v>
+        <v>251789.4379547644</v>
       </c>
       <c r="P4" t="n">
-        <v>94937.81247666414</v>
+        <v>96756.66497830173</v>
       </c>
     </row>
     <row r="5">
@@ -26479,10 +26479,10 @@
         <v>839.9080922675672</v>
       </c>
       <c r="F5" t="n">
-        <v>6301.976900249538</v>
+        <v>6301.976900249542</v>
       </c>
       <c r="G5" t="n">
-        <v>6301.976900249538</v>
+        <v>6301.976900249542</v>
       </c>
       <c r="H5" t="n">
         <v>16250.72609022253</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>345818.3412228554</v>
+        <v>343999.4887212177</v>
       </c>
       <c r="C6" t="n">
-        <v>345818.3412228554</v>
+        <v>343999.4887212177</v>
       </c>
       <c r="D6" t="n">
-        <v>345818.3412228556</v>
+        <v>343999.488721218</v>
       </c>
       <c r="E6" t="n">
-        <v>122295.1727120139</v>
+        <v>120476.3202103763</v>
       </c>
       <c r="F6" t="n">
-        <v>139526.5898466622</v>
+        <v>137707.7373450251</v>
       </c>
       <c r="G6" t="n">
-        <v>191503.5973807781</v>
+        <v>189684.7448791407</v>
       </c>
       <c r="H6" t="n">
-        <v>188020.1747690135</v>
+        <v>185548.0314766704</v>
       </c>
       <c r="I6" t="n">
-        <v>235415.0053372647</v>
+        <v>232942.8620449212</v>
       </c>
       <c r="J6" t="n">
-        <v>227422.4459656285</v>
+        <v>224950.3026732852</v>
       </c>
       <c r="K6" t="n">
-        <v>185477.3115168861</v>
+        <v>183005.1682245427</v>
       </c>
       <c r="L6" t="n">
-        <v>251528.9489450011</v>
+        <v>249056.805652658</v>
       </c>
       <c r="M6" t="n">
-        <v>244675.1474918277</v>
+        <v>242203.0041994843</v>
       </c>
       <c r="N6" t="n">
-        <v>244675.1474918277</v>
+        <v>242203.0041994845</v>
       </c>
       <c r="O6" t="n">
-        <v>235415.0053372647</v>
+        <v>232942.8620449211</v>
       </c>
       <c r="P6" t="n">
-        <v>120076.9985862287</v>
+        <v>118258.146084591</v>
       </c>
     </row>
   </sheetData>
@@ -26695,19 +26695,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="F2" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="G2" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="H2" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="I2" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="J2" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="K2" t="n">
         <v>100.1578341526431</v>
@@ -26716,13 +26716,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="M2" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="N2" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="O2" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26917,13 +26917,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="F2" t="n">
-        <v>64.97125941764467</v>
+        <v>64.97125941764473</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.602588152954425</v>
+        <v>7.602588152954397</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="K2" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27154,13 +27154,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="K2" t="n">
-        <v>64.97125941764467</v>
+        <v>64.97125941764473</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.602588152954425</v>
+        <v>7.602588152954397</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="P2" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
     </row>
     <row r="3">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="C14" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="D14" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="E14" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="F14" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="G14" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="H14" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="I14" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -28372,28 +28372,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="S14" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="T14" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="U14" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="V14" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="W14" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="X14" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="Y14" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="C15" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="D15" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="E15" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="F15" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="G15" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="H15" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="I15" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="S15" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="T15" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="U15" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="V15" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="W15" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="X15" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="Y15" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
     </row>
     <row r="16">
@@ -28482,31 +28482,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="C16" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="D16" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="E16" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="F16" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="G16" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="H16" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="I16" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="J16" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -28527,31 +28527,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="R16" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="S16" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="T16" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="U16" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="V16" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="W16" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="X16" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="Y16" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="C17" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="D17" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="E17" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="F17" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="G17" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="H17" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="I17" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28609,28 +28609,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="S17" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="T17" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="U17" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="V17" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="W17" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="X17" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="Y17" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
     </row>
     <row r="18">
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="C18" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="D18" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="E18" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="F18" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="G18" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="H18" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="I18" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="S18" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="T18" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="U18" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="V18" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="W18" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="X18" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="Y18" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
     </row>
     <row r="19">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="C19" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="D19" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="E19" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="F19" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="G19" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="H19" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="I19" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="J19" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="K19" t="n">
         <v>22.26949182588285</v>
@@ -28764,31 +28764,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="R19" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="S19" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="T19" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="U19" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="V19" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="W19" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="X19" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
       <c r="Y19" t="n">
-        <v>74.96195863218948</v>
+        <v>74.96195863218954</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="C20" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="D20" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="E20" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="F20" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="G20" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="H20" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="I20" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28846,28 +28846,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="S20" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="T20" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="U20" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="V20" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="W20" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="X20" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="Y20" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
     </row>
     <row r="21">
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="C21" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="D21" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="E21" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="F21" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="G21" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="H21" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="I21" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="S21" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="T21" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="U21" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="V21" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="W21" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="X21" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="Y21" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="C22" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="D22" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="E22" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="F22" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="G22" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="H22" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="I22" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="J22" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="K22" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="L22" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="M22" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="N22" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="O22" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="P22" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="Q22" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="R22" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="S22" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="T22" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="U22" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="V22" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="W22" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="X22" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="Y22" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="C23" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="D23" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="E23" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="F23" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="G23" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="H23" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="I23" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -29083,28 +29083,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="S23" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="T23" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="U23" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="V23" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="W23" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="X23" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="Y23" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
     </row>
     <row r="24">
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="C24" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="D24" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="E24" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="F24" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="G24" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="H24" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="I24" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="S24" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="T24" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="U24" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="V24" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="W24" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="X24" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="Y24" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
     </row>
     <row r="25">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="C25" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="D25" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="E25" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="F25" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="G25" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="H25" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="I25" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="J25" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="K25" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="L25" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="M25" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="N25" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="O25" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="P25" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="Q25" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="R25" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="S25" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="T25" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="U25" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="V25" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="W25" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="X25" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="Y25" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="C26" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="D26" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="E26" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="F26" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="G26" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="H26" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="I26" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -29320,28 +29320,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="S26" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="T26" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="U26" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="V26" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="W26" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="X26" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="Y26" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
     </row>
     <row r="27">
@@ -29351,28 +29351,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="C27" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="D27" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="E27" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="F27" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="G27" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="H27" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="I27" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="S27" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="T27" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="U27" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="V27" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="W27" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="X27" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="Y27" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="C28" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="D28" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="E28" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="F28" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="G28" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="H28" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="I28" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="J28" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="K28" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="L28" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="M28" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="N28" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="O28" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="P28" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="R28" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="S28" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="T28" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="U28" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="V28" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="W28" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="X28" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="Y28" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
     </row>
     <row r="29">
@@ -29697,7 +29697,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="L31" t="n">
-        <v>73.96149916337181</v>
+        <v>73.96149916337193</v>
       </c>
       <c r="M31" t="n">
         <v>100.1578341526431</v>
@@ -29937,13 +29937,13 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>73.96149916337183</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="N34" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="O34" t="n">
-        <v>100.1578341526431</v>
+        <v>73.96149916337197</v>
       </c>
       <c r="P34" t="n">
         <v>100.1578341526431</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="C35" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="D35" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="E35" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="F35" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="G35" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="H35" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="I35" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -30031,28 +30031,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="S35" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="T35" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="U35" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="V35" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="W35" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="X35" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="Y35" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
     </row>
     <row r="36">
@@ -30062,25 +30062,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="C36" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="D36" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="E36" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="F36" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="G36" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="H36" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -30110,28 +30110,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="S36" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="T36" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="U36" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="V36" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="W36" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="X36" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="Y36" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
     </row>
     <row r="37">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="C37" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="D37" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="E37" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="F37" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="G37" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="H37" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="I37" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="K37" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="L37" t="n">
-        <v>92.55524599968871</v>
+        <v>26.21784796442554</v>
       </c>
       <c r="M37" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="N37" t="n">
-        <v>26.2178479644255</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="O37" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="P37" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="Q37" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="R37" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="S37" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="T37" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="U37" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="V37" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="W37" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="X37" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="Y37" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="C38" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="D38" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="E38" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="F38" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="G38" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="H38" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="I38" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30268,28 +30268,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="S38" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="T38" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="U38" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="V38" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="W38" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="X38" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="Y38" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
     </row>
     <row r="39">
@@ -30299,25 +30299,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="C39" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="D39" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="E39" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="F39" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="G39" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="H39" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -30347,28 +30347,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="S39" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="T39" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="U39" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="V39" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="W39" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="X39" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="Y39" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
     </row>
     <row r="40">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="C40" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="D40" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="E40" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="F40" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="G40" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="H40" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="I40" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="K40" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="L40" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="M40" t="n">
         <v>26.21784796442552</v>
       </c>
       <c r="N40" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="O40" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="P40" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="Q40" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="R40" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="S40" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="T40" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="U40" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="V40" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="W40" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="X40" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
       <c r="Y40" t="n">
-        <v>92.55524599968871</v>
+        <v>92.55524599968874</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="C41" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="D41" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="E41" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="F41" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="G41" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="H41" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="I41" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30505,28 +30505,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="S41" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="T41" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="U41" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="V41" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="W41" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="X41" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="Y41" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
     </row>
     <row r="42">
@@ -30536,28 +30536,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="C42" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="D42" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="E42" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="F42" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="G42" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="H42" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="I42" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30584,28 +30584,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="S42" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="T42" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="U42" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="V42" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="W42" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="X42" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="Y42" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
     </row>
     <row r="43">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="C43" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="D43" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="E43" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="F43" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="G43" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="H43" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="I43" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="J43" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="K43" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="L43" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="M43" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="N43" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="O43" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="P43" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="Q43" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="R43" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="S43" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="T43" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="U43" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="V43" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="W43" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="X43" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
       <c r="Y43" t="n">
-        <v>82.5645467851439</v>
+        <v>82.56454678514393</v>
       </c>
     </row>
     <row r="44">
@@ -36133,7 +36133,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>105.4291975603272</v>
+        <v>105.4291975603273</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>153.1185395812873</v>
@@ -36209,16 +36209,16 @@
         <v>153.1185395812873</v>
       </c>
       <c r="N21" t="n">
-        <v>103.3311598146773</v>
+        <v>146.9319319214374</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>153.1185395812873</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>60.29505495926105</v>
+        <v>60.29505495926108</v>
       </c>
       <c r="L22" t="n">
-        <v>110.15457204546</v>
+        <v>110.1545720454601</v>
       </c>
       <c r="M22" t="n">
         <v>122.1484237469845</v>
@@ -36294,7 +36294,7 @@
         <v>107.1496746991836</v>
       </c>
       <c r="P22" t="n">
-        <v>79.84310605003739</v>
+        <v>79.84310605003742</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36358,22 +36358,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L23" t="n">
-        <v>153.1185395812873</v>
+        <v>105.4291975603273</v>
       </c>
       <c r="M23" t="n">
         <v>153.1185395812873</v>
       </c>
       <c r="N23" t="n">
-        <v>149.3485016616659</v>
+        <v>153.1185395812873</v>
       </c>
       <c r="O23" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>76.83641827160965</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>153.1185395812873</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>103.3311598146774</v>
       </c>
       <c r="O24" t="n">
         <v>153.1185395812873</v>
@@ -36516,10 +36516,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>60.29505495926105</v>
+        <v>60.29505495926108</v>
       </c>
       <c r="L25" t="n">
-        <v>110.15457204546</v>
+        <v>110.1545720454601</v>
       </c>
       <c r="M25" t="n">
         <v>122.1484237469845</v>
@@ -36531,7 +36531,7 @@
         <v>107.1496746991836</v>
       </c>
       <c r="P25" t="n">
-        <v>79.84310605003739</v>
+        <v>79.84310605003742</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,19 +36595,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L26" t="n">
-        <v>58.78278924545279</v>
+        <v>153.1185395812873</v>
       </c>
       <c r="M26" t="n">
-        <v>153.1185395812873</v>
+        <v>105.4291975603273</v>
       </c>
       <c r="N26" t="n">
         <v>153.1185395812873</v>
       </c>
       <c r="O26" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>90.5657124162131</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>76.8364182716097</v>
       </c>
       <c r="L27" t="n">
         <v>153.1185395812873</v>
       </c>
       <c r="M27" t="n">
-        <v>76.83641827160965</v>
+        <v>153.1185395812873</v>
       </c>
       <c r="N27" t="n">
-        <v>153.1185395812873</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>153.1185395812873</v>
@@ -36753,10 +36753,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>60.29505495926105</v>
+        <v>60.29505495926108</v>
       </c>
       <c r="L28" t="n">
-        <v>110.15457204546</v>
+        <v>110.1545720454601</v>
       </c>
       <c r="M28" t="n">
         <v>122.1484237469845</v>
@@ -36768,7 +36768,7 @@
         <v>107.1496746991836</v>
       </c>
       <c r="P28" t="n">
-        <v>79.84310605003739</v>
+        <v>79.84310605003742</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36832,10 +36832,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>58.78278924545279</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>153.1185395812873</v>
       </c>
       <c r="M29" t="n">
         <v>153.1185395812873</v>
@@ -36844,10 +36844,10 @@
         <v>153.1185395812873</v>
       </c>
       <c r="O29" t="n">
-        <v>150.7019698410586</v>
+        <v>42.87637039525315</v>
       </c>
       <c r="P29" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>153.1185395812873</v>
       </c>
       <c r="M30" t="n">
-        <v>146.9319319214372</v>
+        <v>153.1185395812873</v>
       </c>
       <c r="N30" t="n">
         <v>153.1185395812873</v>
       </c>
       <c r="O30" t="n">
-        <v>153.1185395812873</v>
+        <v>20.30813388321774</v>
       </c>
       <c r="P30" t="n">
-        <v>153.1185395812873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>77.88834232676028</v>
       </c>
       <c r="L31" t="n">
-        <v>101.551524423688</v>
+        <v>101.5515244236881</v>
       </c>
       <c r="M31" t="n">
         <v>139.7417111144837</v>
@@ -37069,10 +37069,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>58.78278924545279</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>153.1185395812873</v>
       </c>
       <c r="M32" t="n">
         <v>153.1185395812873</v>
@@ -37081,10 +37081,10 @@
         <v>153.1185395812873</v>
       </c>
       <c r="O32" t="n">
-        <v>150.7019698410586</v>
+        <v>42.87637039525315</v>
       </c>
       <c r="P32" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>76.8364182716097</v>
       </c>
       <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>153.1185395812873</v>
       </c>
-      <c r="M33" t="n">
+      <c r="O33" t="n">
         <v>153.1185395812873</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>146.9319319214372</v>
       </c>
       <c r="P33" t="n">
         <v>153.1185395812873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M34" t="n">
-        <v>113.5453761252124</v>
+        <v>139.7417111144837</v>
       </c>
       <c r="N34" t="n">
         <v>144.2900065318717</v>
       </c>
       <c r="O34" t="n">
-        <v>124.7429620666828</v>
+        <v>98.54662707741164</v>
       </c>
       <c r="P34" t="n">
         <v>97.43639341753662</v>
@@ -37306,16 +37306,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
+        <v>58.78278924545285</v>
+      </c>
+      <c r="M35" t="n">
         <v>153.1185395812873</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
       <c r="N35" t="n">
-        <v>107.8457673005558</v>
+        <v>153.1185395812873</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>146.9319319214373</v>
+      </c>
+      <c r="N36" t="n">
         <v>153.1185395812873</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>76.83641827160965</v>
       </c>
       <c r="O36" t="n">
         <v>153.1185395812873</v>
@@ -37403,7 +37403,7 @@
         <v>153.1185395812873</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>70.28575417380586</v>
+        <v>70.28575417380588</v>
       </c>
       <c r="L37" t="n">
-        <v>120.1452712600048</v>
+        <v>53.80787322474168</v>
       </c>
       <c r="M37" t="n">
         <v>132.1391229615293</v>
       </c>
       <c r="N37" t="n">
-        <v>70.35002034365409</v>
+        <v>136.6874183789173</v>
       </c>
       <c r="O37" t="n">
         <v>117.1403739137284</v>
       </c>
       <c r="P37" t="n">
-        <v>89.8338052645822</v>
+        <v>89.83380526458222</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.393202747994323</v>
+        <v>6.393202747994351</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,10 +37543,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>58.78278924545279</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>58.78278924545285</v>
       </c>
       <c r="M38" t="n">
         <v>153.1185395812873</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>76.8364182716097</v>
       </c>
       <c r="L39" t="n">
-        <v>146.9319319214372</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>153.1185395812873</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>153.1185395812873</v>
@@ -37637,10 +37637,10 @@
         <v>153.1185395812873</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>153.1185395812873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>70.28575417380586</v>
+        <v>70.28575417380588</v>
       </c>
       <c r="L40" t="n">
-        <v>120.1452712600048</v>
+        <v>120.1452712600049</v>
       </c>
       <c r="M40" t="n">
         <v>65.8017249262661</v>
@@ -37716,10 +37716,10 @@
         <v>117.1403739137284</v>
       </c>
       <c r="P40" t="n">
-        <v>89.8338052645822</v>
+        <v>89.83380526458222</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.393202747994323</v>
+        <v>6.393202747994351</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>153.1185395812873</v>
@@ -37789,10 +37789,10 @@
         <v>153.1185395812873</v>
       </c>
       <c r="N41" t="n">
-        <v>153.1185395812873</v>
+        <v>149.348501661666</v>
       </c>
       <c r="O41" t="n">
-        <v>42.87637039525304</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>20.30813388321774</v>
       </c>
       <c r="M42" t="n">
-        <v>76.83641827160965</v>
+        <v>153.1185395812873</v>
       </c>
       <c r="N42" t="n">
         <v>153.1185395812873</v>
@@ -37874,10 +37874,10 @@
         <v>153.1185395812873</v>
       </c>
       <c r="P42" t="n">
-        <v>153.1185395812873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>60.29505495926105</v>
+        <v>60.29505495926108</v>
       </c>
       <c r="L43" t="n">
-        <v>110.15457204546</v>
+        <v>110.1545720454601</v>
       </c>
       <c r="M43" t="n">
         <v>122.1484237469845</v>
@@ -37953,7 +37953,7 @@
         <v>107.1496746991836</v>
       </c>
       <c r="P43" t="n">
-        <v>79.84310605003739</v>
+        <v>79.84310605003742</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
